--- a/disagreement_matrix/engineering_version/rsj_matrix_records/Glass_withoutdupl_norm_self_sum.xlsx
+++ b/disagreement_matrix/engineering_version/rsj_matrix_records/Glass_withoutdupl_norm_self_sum.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I215"/>
+  <dimension ref="A1:H215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -394,6214 +394,5569 @@
       <c r="H1" s="1">
         <v>6</v>
       </c>
-      <c r="I1" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.0001832127407731325</v>
+        <v>0.0002183716740863837</v>
       </c>
       <c r="C2">
-        <v>0.0001101269282987793</v>
+        <v>0.000116218231908779</v>
       </c>
       <c r="D2">
-        <v>0.0001162575048107383</v>
+        <v>0.0001308288873277025</v>
       </c>
       <c r="E2">
-        <v>0.0001162738984655904</v>
+        <v>0.0001247681168908178</v>
       </c>
       <c r="F2">
-        <v>0.0001079552958894231</v>
+        <v>0.0001058906984173632</v>
       </c>
       <c r="G2">
-        <v>0.0002915210037396401</v>
+        <v>0.0002908658808886219</v>
       </c>
       <c r="H2">
-        <v>0.0002117515437269977</v>
-      </c>
-      <c r="I2">
-        <v>0.0001658973702604954</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>0.0002080733836076358</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0003643615891064316</v>
+        <v>0.0004272577908445865</v>
       </c>
       <c r="C3">
-        <v>0.0002857658823246232</v>
+        <v>0.0003516178730714327</v>
       </c>
       <c r="D3">
-        <v>0.0003032222028723277</v>
+        <v>0.000359858690277343</v>
       </c>
       <c r="E3">
-        <v>0.0004397511801975834</v>
+        <v>0.0004757923236880707</v>
       </c>
       <c r="F3">
-        <v>0.0008840076565490986</v>
+        <v>0.0009298833653674292</v>
       </c>
       <c r="G3">
-        <v>0.0003454711950915156</v>
+        <v>0.000385845033809447</v>
       </c>
       <c r="H3">
-        <v>0.0006132918957586404</v>
-      </c>
-      <c r="I3">
-        <v>0.0002973260001108906</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>0.0006854789984817531</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0001657139266976507</v>
+        <v>0.0001581932386159031</v>
       </c>
       <c r="C4">
-        <v>0.000105065163549744</v>
+        <v>0.0001273527010959132</v>
       </c>
       <c r="D4">
-        <v>0.0002155229446950546</v>
+        <v>0.0002055430948176683</v>
       </c>
       <c r="E4">
-        <v>0.000150369313496919</v>
+        <v>0.000144767330740898</v>
       </c>
       <c r="F4">
-        <v>8.779715468413208E-05</v>
+        <v>0.0001023532935879225</v>
       </c>
       <c r="G4">
-        <v>0.0001091715202368081</v>
+        <v>0.0001314283751802771</v>
       </c>
       <c r="H4">
-        <v>0.0001073467259751963</v>
-      </c>
-      <c r="I4">
-        <v>0.0001396429682687997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>0.0001163774644360281</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0007201880794465894</v>
+        <v>0.0008429507432293497</v>
       </c>
       <c r="C5">
-        <v>0.0009391354029736109</v>
+        <v>0.001056964127830813</v>
       </c>
       <c r="D5">
-        <v>0.001428440467942446</v>
+        <v>0.001660672354360882</v>
       </c>
       <c r="E5">
-        <v>0.001569544518373838</v>
+        <v>0.001790552573002758</v>
       </c>
       <c r="F5">
-        <v>0.001807228676719831</v>
+        <v>0.002017889961954534</v>
       </c>
       <c r="G5">
-        <v>0.001652423715654146</v>
+        <v>0.001865806278876831</v>
       </c>
       <c r="H5">
-        <v>0.00235948965510182</v>
-      </c>
-      <c r="I5">
-        <v>0.0008725274686517585</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>0.002582307338084496</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.001373628477209044</v>
+        <v>0.001503570062587635</v>
       </c>
       <c r="C6">
-        <v>0.002293824927584541</v>
+        <v>0.00266385517799395</v>
       </c>
       <c r="D6">
-        <v>0.0016776186015152</v>
+        <v>0.002014858501615111</v>
       </c>
       <c r="E6">
-        <v>0.001913826394599277</v>
+        <v>0.002188428580802277</v>
       </c>
       <c r="F6">
-        <v>0.003885006890692069</v>
+        <v>0.004147722520953802</v>
       </c>
       <c r="G6">
-        <v>0.001630276402841566</v>
+        <v>0.001855415815215251</v>
       </c>
       <c r="H6">
-        <v>0.001007716833021092</v>
-      </c>
-      <c r="I6">
-        <v>0.001128983380364564</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>0.001194923045142381</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0006545425340088205</v>
+        <v>0.000730420068133779</v>
       </c>
       <c r="C7">
-        <v>0.0005464292342997096</v>
+        <v>0.0006508137899463667</v>
       </c>
       <c r="D7">
-        <v>0.0007235057190407544</v>
+        <v>0.000815211087065191</v>
       </c>
       <c r="E7">
-        <v>0.000835648009967777</v>
+        <v>0.0009274521658223126</v>
       </c>
       <c r="F7">
-        <v>0.001631756191609266</v>
+        <v>0.00174728719490501</v>
       </c>
       <c r="G7">
-        <v>0.0005908075531590533</v>
+        <v>0.0006885431360237736</v>
       </c>
       <c r="H7">
-        <v>0.0007577533292055018</v>
-      </c>
-      <c r="I7">
-        <v>0.0005390721264090952</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>0.0008402979761025519</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0008512587535034473</v>
+        <v>0.001046420125432187</v>
       </c>
       <c r="C8">
-        <v>0.0007914966817625281</v>
+        <v>0.0008665910046574244</v>
       </c>
       <c r="D8">
-        <v>0.00117695118552132</v>
+        <v>0.001193037034408633</v>
       </c>
       <c r="E8">
-        <v>0.001136265417692507</v>
+        <v>0.001169786199365357</v>
       </c>
       <c r="F8">
-        <v>0.001962881739123344</v>
+        <v>0.00200691697662105</v>
       </c>
       <c r="G8">
-        <v>0.0008298359877620088</v>
+        <v>0.0009719409603325382</v>
       </c>
       <c r="H8">
-        <v>0.001120441676712659</v>
-      </c>
-      <c r="I8">
-        <v>0.000893791002427475</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>0.001328113332492596</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0005280415774985741</v>
+        <v>0.0006374991499398479</v>
       </c>
       <c r="C9">
-        <v>0.0006083721198252085</v>
+        <v>0.0006780555435442083</v>
       </c>
       <c r="D9">
-        <v>0.0006665043816899107</v>
+        <v>0.0008139933767686513</v>
       </c>
       <c r="E9">
-        <v>0.0006281270080855247</v>
+        <v>0.000749812631405319</v>
       </c>
       <c r="F9">
-        <v>0.002121522889230123</v>
+        <v>0.002316046906628824</v>
       </c>
       <c r="G9">
-        <v>0.0008893822111256441</v>
+        <v>0.0009445635319818753</v>
       </c>
       <c r="H9">
-        <v>0.000814156501751592</v>
-      </c>
-      <c r="I9">
-        <v>0.0005576758459105371</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>0.000871661918599455</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.0005572098722593196</v>
+        <v>0.0004859642794190994</v>
       </c>
       <c r="C10">
-        <v>0.0006347303885474722</v>
+        <v>0.0005685793051457724</v>
       </c>
       <c r="D10">
-        <v>0.0007183094904116801</v>
+        <v>0.0007317186934686167</v>
       </c>
       <c r="E10">
-        <v>0.0009167579948823439</v>
+        <v>0.001077055961722768</v>
       </c>
       <c r="F10">
-        <v>0.001293557203124667</v>
+        <v>0.001555367140313462</v>
       </c>
       <c r="G10">
-        <v>0.00140329840387458</v>
+        <v>0.001421037173648412</v>
       </c>
       <c r="H10">
-        <v>0.0006051657141658726</v>
-      </c>
-      <c r="I10">
-        <v>0.000941398432609123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>0.0005433967238108111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.000233888985105711</v>
+        <v>0.0002732901577872418</v>
       </c>
       <c r="C11">
-        <v>0.000198060367005648</v>
+        <v>0.0002325290876227848</v>
       </c>
       <c r="D11">
-        <v>0.0002894842868932155</v>
+        <v>0.000306587979585138</v>
       </c>
       <c r="E11">
-        <v>0.0002406790340624338</v>
+        <v>0.0002564255305158126</v>
       </c>
       <c r="F11">
-        <v>0.0004852967187809574</v>
+        <v>0.0005220962724614405</v>
       </c>
       <c r="G11">
-        <v>0.0001825144154960484</v>
+        <v>0.0002003311273536994</v>
       </c>
       <c r="H11">
-        <v>0.0001767296419224824</v>
-      </c>
-      <c r="I11">
-        <v>0.0001767355680723882</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>0.000214273800625566</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.760700273713017E-05</v>
+        <v>8.886127162930661E-05</v>
       </c>
       <c r="C12">
-        <v>8.431774502071137E-05</v>
+        <v>7.510741080863396E-05</v>
       </c>
       <c r="D12">
-        <v>0.0001040469058003935</v>
+        <v>9.397866280173438E-05</v>
       </c>
       <c r="E12">
-        <v>0.0001773436199053491</v>
+        <v>0.0001686468697305314</v>
       </c>
       <c r="F12">
-        <v>7.610292327779695E-05</v>
+        <v>6.470941103931392E-05</v>
       </c>
       <c r="G12">
-        <v>0.0001097368770613573</v>
+        <v>0.0001333204634460011</v>
       </c>
       <c r="H12">
-        <v>0.0001636498982656473</v>
-      </c>
-      <c r="I12">
-        <v>0.0001491750151571873</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>0.0001919415245070064</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.0005031358475372999</v>
+        <v>0.0005581628877623424</v>
       </c>
       <c r="C13">
-        <v>0.0003647749087818327</v>
+        <v>0.0004318652971575827</v>
       </c>
       <c r="D13">
-        <v>0.0005206969100256413</v>
+        <v>0.0006289196055436656</v>
       </c>
       <c r="E13">
-        <v>0.0007195862404888054</v>
+        <v>0.0008073940348228282</v>
       </c>
       <c r="F13">
-        <v>0.001479255844369799</v>
+        <v>0.001607711481026238</v>
       </c>
       <c r="G13">
-        <v>0.0004893382052775466</v>
+        <v>0.0005664701168961943</v>
       </c>
       <c r="H13">
-        <v>0.0005908617622988838</v>
-      </c>
-      <c r="I13">
-        <v>0.0004027503751890561</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>0.0006472217430742188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.0003624444572675392</v>
+        <v>0.0004366451526703022</v>
       </c>
       <c r="C14">
-        <v>0.0002403146197713804</v>
+        <v>0.00024191823993648</v>
       </c>
       <c r="D14">
-        <v>0.0006045158705282756</v>
+        <v>0.0005978970553318608</v>
       </c>
       <c r="E14">
-        <v>0.000510348227430917</v>
+        <v>0.0004951351157152182</v>
       </c>
       <c r="F14">
-        <v>0.0002930137344441127</v>
+        <v>0.0003249632095373821</v>
       </c>
       <c r="G14">
-        <v>0.0002702699187965408</v>
+        <v>0.0002590141639566126</v>
       </c>
       <c r="H14">
-        <v>0.0002296586770972793</v>
-      </c>
-      <c r="I14">
-        <v>0.0003994014976982662</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>0.0002421099991101455</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.0007580142887234193</v>
+        <v>0.0009146421072517461</v>
       </c>
       <c r="C15">
-        <v>0.0004132365445723956</v>
+        <v>0.0004299948594747477</v>
       </c>
       <c r="D15">
-        <v>0.001102693145232623</v>
+        <v>0.001067802547252378</v>
       </c>
       <c r="E15">
-        <v>0.001074374287549495</v>
+        <v>0.001056456394190742</v>
       </c>
       <c r="F15">
-        <v>0.0005156271489099529</v>
+        <v>0.0005399268628840907</v>
       </c>
       <c r="G15">
-        <v>0.0004237523331253758</v>
+        <v>0.0004566073234067882</v>
       </c>
       <c r="H15">
-        <v>0.0005588698000686675</v>
-      </c>
-      <c r="I15">
-        <v>0.0006706091389450157</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>0.0006728777575436821</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.0002179442259506832</v>
+        <v>0.0002568621520187395</v>
       </c>
       <c r="C16">
-        <v>0.0001699634927627186</v>
+        <v>0.0002045415553221399</v>
       </c>
       <c r="D16">
-        <v>0.000199430584056382</v>
+        <v>0.0002259432088205664</v>
       </c>
       <c r="E16">
-        <v>0.0002465737286545157</v>
+        <v>0.0002673765542313635</v>
       </c>
       <c r="F16">
-        <v>0.0005898129385651513</v>
+        <v>0.0006219225451723249</v>
       </c>
       <c r="G16">
-        <v>0.0002693814102032453</v>
+        <v>0.0003050428545482814</v>
       </c>
       <c r="H16">
-        <v>0.0001834008955377946</v>
-      </c>
-      <c r="I16">
-        <v>0.0001681551157531854</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>0.0002203544926687199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.0001605964633105533</v>
+        <v>0.0001926964132556336</v>
       </c>
       <c r="C17">
-        <v>0.0002205146020691909</v>
+        <v>0.0002514245376083404</v>
       </c>
       <c r="D17">
-        <v>0.0001591945937269723</v>
+        <v>0.0001948116879951302</v>
       </c>
       <c r="E17">
-        <v>0.0001564206948864129</v>
+        <v>0.0001809443502939444</v>
       </c>
       <c r="F17">
-        <v>0.0005343362880486567</v>
+        <v>0.0005710955642967454</v>
       </c>
       <c r="G17">
-        <v>0.0003202077122789826</v>
+        <v>0.0003494386110275728</v>
       </c>
       <c r="H17">
-        <v>0.0001963180268625238</v>
-      </c>
-      <c r="I17">
-        <v>0.0001502110144401756</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>0.0002250833368335256</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.0005549431104457804</v>
+        <v>0.000645224478887003</v>
       </c>
       <c r="C18">
-        <v>0.000613079959705851</v>
+        <v>0.0006717718946327735</v>
       </c>
       <c r="D18">
-        <v>0.0006256988232242878</v>
+        <v>0.000709899870829256</v>
       </c>
       <c r="E18">
-        <v>0.0006807858931782192</v>
+        <v>0.0007628398395359155</v>
       </c>
       <c r="F18">
-        <v>0.0007251531770612012</v>
+        <v>0.0008242096768904636</v>
       </c>
       <c r="G18">
-        <v>0.0009876681620967723</v>
+        <v>0.001026087149516817</v>
       </c>
       <c r="H18">
-        <v>0.0007985506918044399</v>
-      </c>
-      <c r="I18">
-        <v>0.0005290688110274244</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>0.0008438498355989017</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.0003165804710561177</v>
+        <v>0.0003166796260926225</v>
       </c>
       <c r="C19">
-        <v>0.0002541560944341895</v>
+        <v>0.0003127236303159843</v>
       </c>
       <c r="D19">
-        <v>0.0003255846162026061</v>
+        <v>0.0003263760574154979</v>
       </c>
       <c r="E19">
-        <v>0.0002871973196752948</v>
+        <v>0.0002880803543113107</v>
       </c>
       <c r="F19">
-        <v>0.0002295031054779221</v>
+        <v>0.0002684126737410771</v>
       </c>
       <c r="G19">
-        <v>0.0003509989645931529</v>
+        <v>0.0004019967503484049</v>
       </c>
       <c r="H19">
-        <v>0.0003665774687453063</v>
-      </c>
-      <c r="I19">
-        <v>0.0002292162616080358</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>0.0004252874380234112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.000775274729518717</v>
+        <v>0.0009340355620392052</v>
       </c>
       <c r="C20">
-        <v>0.0006295739009979486</v>
+        <v>0.0006485554136861644</v>
       </c>
       <c r="D20">
-        <v>0.001061757361325163</v>
+        <v>0.001061997397747388</v>
       </c>
       <c r="E20">
-        <v>0.001175332478329629</v>
+        <v>0.001175955057534126</v>
       </c>
       <c r="F20">
-        <v>0.001714759167844935</v>
+        <v>0.001926155731406636</v>
       </c>
       <c r="G20">
-        <v>0.000701670544292882</v>
+        <v>0.0007695753974024177</v>
       </c>
       <c r="H20">
-        <v>0.0006886592935015678</v>
-      </c>
-      <c r="I20">
-        <v>0.0007884888869586831</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>0.0008154079037903813</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.000442306383910218</v>
+        <v>0.000544233030466158</v>
       </c>
       <c r="C21">
-        <v>0.0004947000826434747</v>
+        <v>0.0005687889253213588</v>
       </c>
       <c r="D21">
-        <v>0.00046239450587343</v>
+        <v>0.0005588176201069704</v>
       </c>
       <c r="E21">
-        <v>0.0006332170255809972</v>
+        <v>0.000713598361413223</v>
       </c>
       <c r="F21">
-        <v>0.001372254231332216</v>
+        <v>0.001461652035218802</v>
       </c>
       <c r="G21">
-        <v>0.0006859209619631819</v>
+        <v>0.0007415678942428719</v>
       </c>
       <c r="H21">
-        <v>0.000623730424099087</v>
-      </c>
-      <c r="I21">
-        <v>0.0004303771745399636</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>0.0006827698777146335</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.000396148583059984</v>
+        <v>0.0004748432840638464</v>
       </c>
       <c r="C22">
-        <v>0.0003317031559747846</v>
+        <v>0.0003733413724048574</v>
       </c>
       <c r="D22">
-        <v>0.0003979213294771987</v>
+        <v>0.0004522558309544109</v>
       </c>
       <c r="E22">
-        <v>0.0007591933839270553</v>
+        <v>0.0008211324012873729</v>
       </c>
       <c r="F22">
-        <v>0.001254369429367747</v>
+        <v>0.001374569515250392</v>
       </c>
       <c r="G22">
-        <v>0.0003229413266073061</v>
+        <v>0.0003724162698045357</v>
       </c>
       <c r="H22">
-        <v>0.0003744321576168024</v>
-      </c>
-      <c r="I22">
-        <v>0.0003588548074417431</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>0.0004107677535698131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.0007601551805087264</v>
+        <v>0.000801349587870609</v>
       </c>
       <c r="C23">
-        <v>0.0007799628286286256</v>
+        <v>0.0008831502505726205</v>
       </c>
       <c r="D23">
-        <v>0.001072356148258636</v>
+        <v>0.001215374434813185</v>
       </c>
       <c r="E23">
-        <v>0.001440055880951583</v>
+        <v>0.001531675653458748</v>
       </c>
       <c r="F23">
-        <v>0.003227209153171726</v>
+        <v>0.003588445919803721</v>
       </c>
       <c r="G23">
-        <v>0.000847636238359571</v>
+        <v>0.0009151349893449016</v>
       </c>
       <c r="H23">
-        <v>0.0008035314590895179</v>
-      </c>
-      <c r="I23">
-        <v>0.0009945699810827125</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>0.0008301322708156768</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.0003396374918587521</v>
+        <v>0.0003772088101021397</v>
       </c>
       <c r="C24">
-        <v>0.0002942891168803116</v>
+        <v>0.0003239000055271008</v>
       </c>
       <c r="D24">
-        <v>0.0002184504969480015</v>
+        <v>0.000253110383480454</v>
       </c>
       <c r="E24">
-        <v>0.0002001393451167044</v>
+        <v>0.0002443236243548186</v>
       </c>
       <c r="F24">
-        <v>0.0004783492243269333</v>
+        <v>0.0005143565590669496</v>
       </c>
       <c r="G24">
-        <v>0.0003818921693537272</v>
+        <v>0.0004131479965473495</v>
       </c>
       <c r="H24">
-        <v>0.0001984843944765078</v>
-      </c>
-      <c r="I24">
-        <v>0.0001895679717543905</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>0.000238478030480642</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.0001947929889996751</v>
+        <v>0.0001974890298636726</v>
       </c>
       <c r="C25">
-        <v>0.0001236858936902327</v>
+        <v>0.0001306541342321424</v>
       </c>
       <c r="D25">
-        <v>9.089362260961093E-05</v>
+        <v>0.0001012037733454612</v>
       </c>
       <c r="E25">
-        <v>0.0001038471554632519</v>
+        <v>0.0001143221966752848</v>
       </c>
       <c r="F25">
-        <v>9.488256830582241E-05</v>
+        <v>0.0001016059182299183</v>
       </c>
       <c r="G25">
-        <v>0.0001017942370726694</v>
+        <v>0.0001143630657298203</v>
       </c>
       <c r="H25">
-        <v>0.0001687919977866949</v>
-      </c>
-      <c r="I25">
-        <v>0.0001150283065133476</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>0.0001800095904178809</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.0004313698182496588</v>
+        <v>0.0004971570127893212</v>
       </c>
       <c r="C26">
-        <v>0.0006022222482537869</v>
+        <v>0.0006808504762010157</v>
       </c>
       <c r="D26">
-        <v>0.0008680807043876589</v>
+        <v>0.001035046339608499</v>
       </c>
       <c r="E26">
-        <v>0.0007412265184498608</v>
+        <v>0.0009120391137456573</v>
       </c>
       <c r="F26">
-        <v>0.0008404519182030633</v>
+        <v>0.000977094102477201</v>
       </c>
       <c r="G26">
-        <v>0.001669695768687009</v>
+        <v>0.001808960388650464</v>
       </c>
       <c r="H26">
-        <v>0.0005786376298014472</v>
-      </c>
-      <c r="I26">
-        <v>0.0003902235524743229</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>0.0006612523819920633</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.0004977662974789635</v>
+        <v>0.0005469114469750632</v>
       </c>
       <c r="C27">
-        <v>0.0002467333661506131</v>
+        <v>0.000244739998547936</v>
       </c>
       <c r="D27">
-        <v>0.0002013774403073402</v>
+        <v>0.0001994968900262969</v>
       </c>
       <c r="E27">
-        <v>0.0001919972842736342</v>
+        <v>0.0001893637147292773</v>
       </c>
       <c r="F27">
-        <v>0.0001638503736289239</v>
+        <v>0.0001644836256498132</v>
       </c>
       <c r="G27">
-        <v>0.0001673574013709831</v>
+        <v>0.0001668665890126818</v>
       </c>
       <c r="H27">
-        <v>0.0002930208164258655</v>
-      </c>
-      <c r="I27">
-        <v>0.0002488334538533029</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>0.00035014179868395</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.0004245362849309309</v>
+        <v>0.0004837740153453099</v>
       </c>
       <c r="C28">
-        <v>0.0002727506478678322</v>
+        <v>0.0003342386819219829</v>
       </c>
       <c r="D28">
-        <v>0.0002903006736080983</v>
+        <v>0.0003403685852729161</v>
       </c>
       <c r="E28">
-        <v>0.0002340599910537354</v>
+        <v>0.0002672271057922813</v>
       </c>
       <c r="F28">
-        <v>0.0007674400335479053</v>
+        <v>0.000800115989561945</v>
       </c>
       <c r="G28">
-        <v>0.0002551047305828626</v>
+        <v>0.0002884885235083445</v>
       </c>
       <c r="H28">
-        <v>0.0003020779033883001</v>
-      </c>
-      <c r="I28">
-        <v>0.0002414619798431757</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>0.0003217395089606657</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.0004763927584578491</v>
+        <v>0.0005773447094063101</v>
       </c>
       <c r="C29">
-        <v>0.0004554156387158748</v>
+        <v>0.0005437045523230911</v>
       </c>
       <c r="D29">
-        <v>0.0006202123385900685</v>
+        <v>0.0006546825844347166</v>
       </c>
       <c r="E29">
-        <v>0.000554778471674505</v>
+        <v>0.0005956809656674113</v>
       </c>
       <c r="F29">
-        <v>0.0008680909230086278</v>
+        <v>0.0009002871306425801</v>
       </c>
       <c r="G29">
-        <v>0.000781251262208426</v>
+        <v>0.0008648137732883403</v>
       </c>
       <c r="H29">
-        <v>0.0005162034322800008</v>
-      </c>
-      <c r="I29">
-        <v>0.0004263657180407128</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>0.0005957713203322891</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>7.714374563332647E-05</v>
+        <v>7.787143976697414E-05</v>
       </c>
       <c r="C30">
-        <v>8.567209292346462E-05</v>
+        <v>8.903632693905819E-05</v>
       </c>
       <c r="D30">
-        <v>0.00010797402033725</v>
+        <v>8.256231092395763E-05</v>
       </c>
       <c r="E30">
-        <v>0.0001758556491751983</v>
+        <v>0.0001538318533588666</v>
       </c>
       <c r="F30">
-        <v>7.449275664836289E-05</v>
+        <v>6.878864893341137E-05</v>
       </c>
       <c r="G30">
-        <v>0.0001176008722409899</v>
+        <v>9.20270111774493E-05</v>
       </c>
       <c r="H30">
-        <v>0.0001097930325827074</v>
-      </c>
-      <c r="I30">
-        <v>0.0001957566872136847</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>0.0001160472073962055</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.0001431587188506408</v>
+        <v>0.000130817019749302</v>
       </c>
       <c r="C31">
-        <v>0.0001026168456951652</v>
+        <v>0.0001205643398744006</v>
       </c>
       <c r="D31">
-        <v>0.0001233168875006701</v>
+        <v>0.0001049150893186177</v>
       </c>
       <c r="E31">
-        <v>0.00012060108071889</v>
+        <v>0.0001094449481711987</v>
       </c>
       <c r="F31">
-        <v>9.561936162318969E-05</v>
+        <v>8.308858142317871E-05</v>
       </c>
       <c r="G31">
-        <v>0.0001044198637033173</v>
+        <v>0.0001093922497641544</v>
       </c>
       <c r="H31">
-        <v>0.0001292470427273741</v>
-      </c>
-      <c r="I31">
-        <v>0.0001589437090864759</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>0.000153921316612538</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.0002737507293527277</v>
+        <v>0.0003306122780092352</v>
       </c>
       <c r="C32">
-        <v>0.0002660717794011083</v>
+        <v>0.0003182911002807284</v>
       </c>
       <c r="D32">
-        <v>0.0005549859339276975</v>
+        <v>0.0005725959836677589</v>
       </c>
       <c r="E32">
-        <v>0.0005100306679532131</v>
+        <v>0.0005274568197034715</v>
       </c>
       <c r="F32">
-        <v>0.0002469980520685869</v>
+        <v>0.0002831066035265516</v>
       </c>
       <c r="G32">
-        <v>0.0003402280761572332</v>
+        <v>0.0003816025584725092</v>
       </c>
       <c r="H32">
-        <v>0.0003555273060334932</v>
-      </c>
-      <c r="I32">
-        <v>0.0002593328931323242</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>0.0004019248116327167</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.0002800680672688642</v>
+        <v>0.0003271483302649182</v>
       </c>
       <c r="C33">
-        <v>0.0002707844762112208</v>
+        <v>0.0003118694535677621</v>
       </c>
       <c r="D33">
-        <v>0.0003085431760834256</v>
+        <v>0.0003585763708873915</v>
       </c>
       <c r="E33">
-        <v>0.0002572756744381739</v>
+        <v>0.0003148409830203171</v>
       </c>
       <c r="F33">
-        <v>0.000878363789266452</v>
+        <v>0.00093573703425264</v>
       </c>
       <c r="G33">
-        <v>0.0005646269063301933</v>
+        <v>0.000601683901448515</v>
       </c>
       <c r="H33">
-        <v>0.0002577100638987922</v>
-      </c>
-      <c r="I33">
-        <v>0.0002556630757582101</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>0.0003021997485037825</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.0007164104783437725</v>
+        <v>0.0008815042334908219</v>
       </c>
       <c r="C34">
-        <v>0.0007560818733211075</v>
+        <v>0.0009000369359014236</v>
       </c>
       <c r="D34">
-        <v>0.001437758867117328</v>
+        <v>0.001658964049638423</v>
       </c>
       <c r="E34">
-        <v>0.002115668607723085</v>
+        <v>0.002369308356430567</v>
       </c>
       <c r="F34">
-        <v>0.004477837768070038</v>
+        <v>0.00480762349819965</v>
       </c>
       <c r="G34">
-        <v>0.001168046557030873</v>
+        <v>0.001408717699542136</v>
       </c>
       <c r="H34">
-        <v>0.0008312068010588004</v>
-      </c>
-      <c r="I34">
-        <v>0.0009457078915254851</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>0.0009640744158752334</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.0003104022745170455</v>
+        <v>0.0003537435360939805</v>
       </c>
       <c r="C35">
-        <v>0.0002276852490123478</v>
+        <v>0.0002380266926128568</v>
       </c>
       <c r="D35">
-        <v>0.0002751283196360069</v>
+        <v>0.0002839853068108585</v>
       </c>
       <c r="E35">
-        <v>0.0003013475834708848</v>
+        <v>0.0003019689568349306</v>
       </c>
       <c r="F35">
-        <v>0.000238225760100855</v>
+        <v>0.000266276741850405</v>
       </c>
       <c r="G35">
-        <v>0.0002699548367827984</v>
+        <v>0.0002704891904499712</v>
       </c>
       <c r="H35">
-        <v>0.0003027605832120646</v>
-      </c>
-      <c r="I35">
-        <v>0.0002514281705772797</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>0.0003453783962563714</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.0001251932293932279</v>
+        <v>0.000146982916204531</v>
       </c>
       <c r="C36">
-        <v>0.0001055849687944717</v>
+        <v>0.0001296078508794384</v>
       </c>
       <c r="D36">
-        <v>0.0001423074351183075</v>
+        <v>0.0001503616574647944</v>
       </c>
       <c r="E36">
-        <v>0.000209071565372104</v>
+        <v>0.000207904702318315</v>
       </c>
       <c r="F36">
-        <v>0.00019183919619234</v>
+        <v>0.0002133082268553562</v>
       </c>
       <c r="G36">
-        <v>0.0002698677079750134</v>
+        <v>0.0002740293964971824</v>
       </c>
       <c r="H36">
-        <v>0.000125265597333969</v>
-      </c>
-      <c r="I36">
-        <v>0.0001325997789762027</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>0.0001532053799676049</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.0003498530380142241</v>
+        <v>0.0003834558699322428</v>
       </c>
       <c r="C37">
-        <v>0.0002923914857125114</v>
+        <v>0.0003402051761627237</v>
       </c>
       <c r="D37">
-        <v>0.0003798830645002127</v>
+        <v>0.0004031213783507858</v>
       </c>
       <c r="E37">
-        <v>0.0004285227710484745</v>
+        <v>0.0004543796992723084</v>
       </c>
       <c r="F37">
-        <v>0.0002645587239165573</v>
+        <v>0.0003094835764661941</v>
       </c>
       <c r="G37">
-        <v>0.0004137536022855616</v>
+        <v>0.0004594902166399281</v>
       </c>
       <c r="H37">
-        <v>0.0004417440454546916</v>
-      </c>
-      <c r="I37">
-        <v>0.0002577011096725895</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>0.0004959029003897954</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.0005147084767202368</v>
+        <v>0.0005521752992826344</v>
       </c>
       <c r="C38">
-        <v>0.0002731824394553858</v>
+        <v>0.0003130084177715646</v>
       </c>
       <c r="D38">
-        <v>0.0003063800507047677</v>
+        <v>0.0003656583562837999</v>
       </c>
       <c r="E38">
-        <v>0.000405653249466567</v>
+        <v>0.0004401896125498892</v>
       </c>
       <c r="F38">
-        <v>0.0003090761477359268</v>
+        <v>0.0003271061171368543</v>
       </c>
       <c r="G38">
-        <v>0.0004155453440357033</v>
+        <v>0.0004415755459882147</v>
       </c>
       <c r="H38">
-        <v>0.0003773884155202453</v>
-      </c>
-      <c r="I38">
-        <v>0.0002958780697125645</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>0.0003977743776386122</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.0005070711732627446</v>
+        <v>0.0006185671440263878</v>
       </c>
       <c r="C39">
-        <v>0.0006884093892018547</v>
+        <v>0.0007671121169065769</v>
       </c>
       <c r="D39">
-        <v>0.0007475609365177575</v>
+        <v>0.0009185332629002522</v>
       </c>
       <c r="E39">
-        <v>0.0008095540965044466</v>
+        <v>0.0009816442702270695</v>
       </c>
       <c r="F39">
-        <v>0.002308752031891599</v>
+        <v>0.002549239217070064</v>
       </c>
       <c r="G39">
-        <v>0.001144861140337843</v>
+        <v>0.001223462132319607</v>
       </c>
       <c r="H39">
-        <v>0.0006510742608386367</v>
-      </c>
-      <c r="I39">
-        <v>0.0005375940793385987</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>0.0007175015439425095</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.0001777571617003875</v>
+        <v>0.0002106472090760457</v>
       </c>
       <c r="C40">
-        <v>0.0001633166021640376</v>
+        <v>0.0001782832647517188</v>
       </c>
       <c r="D40">
-        <v>0.0001777246004509744</v>
+        <v>0.0001944885782013087</v>
       </c>
       <c r="E40">
-        <v>0.0001517371220443267</v>
+        <v>0.0001696920721301291</v>
       </c>
       <c r="F40">
-        <v>0.0001740764801649239</v>
+        <v>0.0001821538989002824</v>
       </c>
       <c r="G40">
-        <v>0.0002136661945450973</v>
+        <v>0.0002285565595723547</v>
       </c>
       <c r="H40">
-        <v>0.0002538479341292801</v>
-      </c>
-      <c r="I40">
-        <v>0.0001442238957070898</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>0.0002732254811193894</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.0009223527201385994</v>
+        <v>0.001061325357678377</v>
       </c>
       <c r="C41">
-        <v>0.0007033926875673865</v>
+        <v>0.0008498400878161187</v>
       </c>
       <c r="D41">
-        <v>0.001150676443357257</v>
+        <v>0.001289751476938394</v>
       </c>
       <c r="E41">
-        <v>0.00101928192896351</v>
+        <v>0.001184886115354307</v>
       </c>
       <c r="F41">
-        <v>0.002347756272624933</v>
+        <v>0.002572346536496228</v>
       </c>
       <c r="G41">
-        <v>0.001758259371116312</v>
+        <v>0.001950418757515404</v>
       </c>
       <c r="H41">
-        <v>0.0005605973902209514</v>
-      </c>
-      <c r="I41">
-        <v>0.000683269099633623</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>0.000663158389974063</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.000152602493171197</v>
+        <v>0.0001799135542193288</v>
       </c>
       <c r="C42">
-        <v>0.0001533795838421291</v>
+        <v>0.000161857992564256</v>
       </c>
       <c r="D42">
-        <v>0.0001512526031272674</v>
+        <v>0.0001759043680786762</v>
       </c>
       <c r="E42">
-        <v>0.0001627704446529</v>
+        <v>0.0001905998217685065</v>
       </c>
       <c r="F42">
-        <v>0.0001065380084453862</v>
+        <v>0.0001289564371068835</v>
       </c>
       <c r="G42">
-        <v>0.0003366254723262078</v>
+        <v>0.0003398961810837389</v>
       </c>
       <c r="H42">
-        <v>0.000276817914122791</v>
-      </c>
-      <c r="I42">
-        <v>0.0001541187637999103</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>0.0002820244160015205</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.0002681707776454757</v>
+        <v>0.0002897620278759489</v>
       </c>
       <c r="C43">
-        <v>0.0001947982830725805</v>
+        <v>0.0002216617155797927</v>
       </c>
       <c r="D43">
-        <v>0.0001883108038157093</v>
+        <v>0.0002127554077587655</v>
       </c>
       <c r="E43">
-        <v>0.0003228825584985669</v>
+        <v>0.0003442774638158412</v>
       </c>
       <c r="F43">
-        <v>0.0001319596512935309</v>
+        <v>0.0001492705013276758</v>
       </c>
       <c r="G43">
-        <v>0.0001668411922776792</v>
+        <v>0.0001866740874494884</v>
       </c>
       <c r="H43">
-        <v>0.0003330749975534665</v>
-      </c>
-      <c r="I43">
-        <v>0.0001743671672062692</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>0.0003572001266366738</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.0001570746437783348</v>
+        <v>0.0001910937633581056</v>
       </c>
       <c r="C44">
-        <v>0.0001551614718967487</v>
+        <v>0.0001642729702035171</v>
       </c>
       <c r="D44">
-        <v>0.0002026242101441075</v>
+        <v>0.0002371936524358621</v>
       </c>
       <c r="E44">
-        <v>0.0001900041777067015</v>
+        <v>0.0002261657336874371</v>
       </c>
       <c r="F44">
-        <v>0.0001335472029138586</v>
+        <v>0.0001391966055953669</v>
       </c>
       <c r="G44">
-        <v>0.000312390155819302</v>
+        <v>0.0003101981645871261</v>
       </c>
       <c r="H44">
-        <v>0.0003448314911492605</v>
-      </c>
-      <c r="I44">
-        <v>0.0001857414459399079</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>0.0003436373168359411</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.0003108132209596895</v>
+        <v>0.0003671639676808106</v>
       </c>
       <c r="C45">
-        <v>0.0002191016144660668</v>
+        <v>0.0002150913797898227</v>
       </c>
       <c r="D45">
-        <v>0.0003158764058508929</v>
+        <v>0.0003027257440116171</v>
       </c>
       <c r="E45">
-        <v>0.000349378151988046</v>
+        <v>0.0003350408428265019</v>
       </c>
       <c r="F45">
-        <v>0.0001463767008438709</v>
+        <v>0.0001536369057690639</v>
       </c>
       <c r="G45">
-        <v>0.0001743208367702688</v>
+        <v>0.0001855519006161745</v>
       </c>
       <c r="H45">
-        <v>0.0002293638621847205</v>
-      </c>
-      <c r="I45">
-        <v>0.0002533713795940472</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>0.0002764492642923052</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.0005759567793449268</v>
+        <v>0.0006812688221850246</v>
       </c>
       <c r="C46">
-        <v>0.0005178735861126069</v>
+        <v>0.0006363052280355053</v>
       </c>
       <c r="D46">
-        <v>0.0008360561501540052</v>
+        <v>0.0008634704627296758</v>
       </c>
       <c r="E46">
-        <v>0.0007939257336691885</v>
+        <v>0.0008308242390519289</v>
       </c>
       <c r="F46">
-        <v>0.0009831491116451443</v>
+        <v>0.001016441229599167</v>
       </c>
       <c r="G46">
-        <v>0.000584157736840939</v>
+        <v>0.000702947220503662</v>
       </c>
       <c r="H46">
-        <v>0.0008365149933015758</v>
-      </c>
-      <c r="I46">
-        <v>0.0005143327785830664</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>0.00094517893805087</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.0002499714263879177</v>
+        <v>0.0002967767284710011</v>
       </c>
       <c r="C47">
-        <v>0.0001939253934116652</v>
+        <v>0.0002001471073486053</v>
       </c>
       <c r="D47">
-        <v>0.0001537322400142585</v>
+        <v>0.0001820623646592487</v>
       </c>
       <c r="E47">
-        <v>0.0001459982669412831</v>
+        <v>0.0001710515407654974</v>
       </c>
       <c r="F47">
-        <v>0.0001274620342455874</v>
+        <v>0.0001341496894042578</v>
       </c>
       <c r="G47">
-        <v>0.000458876166459565</v>
+        <v>0.0004724557817284779</v>
       </c>
       <c r="H47">
-        <v>0.0001749050587783804</v>
-      </c>
-      <c r="I47">
-        <v>0.0001726101677125405</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>0.0001826383140705247</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.001071350804137068</v>
+        <v>0.001318240324316675</v>
       </c>
       <c r="C48">
-        <v>0.001472156999307771</v>
+        <v>0.001706229899673996</v>
       </c>
       <c r="D48">
-        <v>0.002762652057685434</v>
+        <v>0.002781406300396232</v>
       </c>
       <c r="E48">
-        <v>0.001794910641116285</v>
+        <v>0.001831273295198643</v>
       </c>
       <c r="F48">
-        <v>0.003731090849567773</v>
+        <v>0.004590915716886346</v>
       </c>
       <c r="G48">
-        <v>0.002517864032969943</v>
+        <v>0.002605956649907786</v>
       </c>
       <c r="H48">
-        <v>0.001542636143895477</v>
-      </c>
-      <c r="I48">
-        <v>0.001370329289382361</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>0.001804525208185836</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.0002675127485212694</v>
+        <v>0.0002578111909679394</v>
       </c>
       <c r="C49">
-        <v>0.0001092962235951435</v>
+        <v>0.0001217067090961831</v>
       </c>
       <c r="D49">
-        <v>0.0001262456902227621</v>
+        <v>0.0001241958711067128</v>
       </c>
       <c r="E49">
-        <v>0.0001905730420222931</v>
+        <v>0.0001747527296838943</v>
       </c>
       <c r="F49">
-        <v>9.022929854155197E-05</v>
+        <v>9.024360152783696E-05</v>
       </c>
       <c r="G49">
-        <v>0.0001057736430570084</v>
+        <v>0.0001223098098841116</v>
       </c>
       <c r="H49">
-        <v>0.0001214038639865025</v>
-      </c>
-      <c r="I49">
-        <v>0.0001731782751110045</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>0.0001399223109744531</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6.578210770819828E-05</v>
+        <v>5.795046438824318E-05</v>
       </c>
       <c r="C50">
-        <v>0.0001785627916634648</v>
+        <v>0.0001647721548248607</v>
       </c>
       <c r="D50">
-        <v>8.771652092958058E-05</v>
+        <v>8.465318278259755E-05</v>
       </c>
       <c r="E50">
-        <v>0.0001185504815440999</v>
+        <v>0.0001401639226717797</v>
       </c>
       <c r="F50">
-        <v>0.0001604423633561119</v>
+        <v>0.0001447493974688161</v>
       </c>
       <c r="G50">
-        <v>9.275095899228244E-05</v>
+        <v>9.801199576197843E-05</v>
       </c>
       <c r="H50">
-        <v>0.0001226834157739183</v>
-      </c>
-      <c r="I50">
-        <v>0.0001750443585103669</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>0.0001112706397028534</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.000192038167846281</v>
+        <v>0.0002109005633236756</v>
       </c>
       <c r="C51">
-        <v>0.0001818209213199624</v>
+        <v>0.0002036640427852388</v>
       </c>
       <c r="D51">
-        <v>0.0001728435804468378</v>
+        <v>0.0001818110960220219</v>
       </c>
       <c r="E51">
-        <v>0.0001836439234875957</v>
+        <v>0.0001949007227339611</v>
       </c>
       <c r="F51">
-        <v>0.0001089190102494391</v>
+        <v>0.0001226505065921407</v>
       </c>
       <c r="G51">
-        <v>0.0001874693695412524</v>
+        <v>0.0002043520739768506</v>
       </c>
       <c r="H51">
-        <v>0.0002777090411534169</v>
-      </c>
-      <c r="I51">
-        <v>0.0001567446462686364</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>0.0002939094972974114</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.0002738928667688724</v>
+        <v>0.0003045939246150428</v>
       </c>
       <c r="C52">
-        <v>0.000251729547633739</v>
+        <v>0.0002877398169521258</v>
       </c>
       <c r="D52">
-        <v>0.000210870801799652</v>
+        <v>0.0002359273724696966</v>
       </c>
       <c r="E52">
-        <v>0.0002214014091349902</v>
+        <v>0.0002386786947826739</v>
       </c>
       <c r="F52">
-        <v>0.0002756900294216132</v>
+        <v>0.0003052412114200315</v>
       </c>
       <c r="G52">
-        <v>0.0004858257014996601</v>
+        <v>0.0005286673404431078</v>
       </c>
       <c r="H52">
-        <v>0.0001966696816841659</v>
-      </c>
-      <c r="I52">
-        <v>0.0001886015008800701</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>0.0002247290402261009</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.0001832872854886641</v>
+        <v>0.0001880854650678773</v>
       </c>
       <c r="C53">
-        <v>0.0001425023812444071</v>
+        <v>0.0001462590267498483</v>
       </c>
       <c r="D53">
-        <v>0.0001488326248768764</v>
+        <v>0.0001665334290469756</v>
       </c>
       <c r="E53">
-        <v>0.0002279358620463906</v>
+        <v>0.0002483445211175004</v>
       </c>
       <c r="F53">
-        <v>9.320922006438163E-05</v>
+        <v>0.0001122839817587378</v>
       </c>
       <c r="G53">
-        <v>0.0001065157827666851</v>
+        <v>0.0001256067325039679</v>
       </c>
       <c r="H53">
-        <v>0.0001860216384451573</v>
-      </c>
-      <c r="I53">
-        <v>0.0001324309516933903</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>0.0001890437557685581</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.0001342868650994592</v>
+        <v>0.0001538622985575924</v>
       </c>
       <c r="C54">
-        <v>7.658702079702807E-05</v>
+        <v>9.254334558216911E-05</v>
       </c>
       <c r="D54">
-        <v>0.0001253622635346274</v>
+        <v>0.0001325235547903284</v>
       </c>
       <c r="E54">
-        <v>0.0001128069078264589</v>
+        <v>0.0001217323724894741</v>
       </c>
       <c r="F54">
-        <v>6.231027948197794E-05</v>
+        <v>7.464792321006611E-05</v>
       </c>
       <c r="G54">
-        <v>0.0001509210623214728</v>
+        <v>0.0001592833972757792</v>
       </c>
       <c r="H54">
-        <v>0.0001546180879179377</v>
-      </c>
-      <c r="I54">
-        <v>8.35279390957105E-05</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>0.000167777603732385</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.000210942718708133</v>
+        <v>0.0002504559680425046</v>
       </c>
       <c r="C55">
-        <v>0.0001903658410976139</v>
+        <v>0.0002199032923747822</v>
       </c>
       <c r="D55">
-        <v>0.0003020934091193508</v>
+        <v>0.0003227924473070495</v>
       </c>
       <c r="E55">
-        <v>0.0004397141179310059</v>
+        <v>0.0004568996448087757</v>
       </c>
       <c r="F55">
-        <v>0.0001537509579476194</v>
+        <v>0.0001846640666445443</v>
       </c>
       <c r="G55">
-        <v>0.0002846913600504168</v>
+        <v>0.0003162019322675214</v>
       </c>
       <c r="H55">
-        <v>0.0004324376881406288</v>
-      </c>
-      <c r="I55">
-        <v>0.0002075162584329789</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>0.0004718671441008262</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.0006170241155644241</v>
+        <v>0.0007224879112789484</v>
       </c>
       <c r="C56">
-        <v>0.0009139977267413658</v>
+        <v>0.0009595215778132563</v>
       </c>
       <c r="D56">
-        <v>0.0009638742023552584</v>
+        <v>0.001107823413328299</v>
       </c>
       <c r="E56">
-        <v>0.001013460433384194</v>
+        <v>0.001166441600587339</v>
       </c>
       <c r="F56">
-        <v>0.001738810756152026</v>
+        <v>0.002000143260871421</v>
       </c>
       <c r="G56">
-        <v>0.001495063531121119</v>
+        <v>0.001555532923068875</v>
       </c>
       <c r="H56">
-        <v>0.001177952576401657</v>
-      </c>
-      <c r="I56">
-        <v>0.000803593995894363</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>0.001244654570223973</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.0002040731331395701</v>
+        <v>0.0001879635685920896</v>
       </c>
       <c r="C57">
-        <v>0.0001822818646050866</v>
+        <v>0.0001876959836597158</v>
       </c>
       <c r="D57">
-        <v>0.0002596303870975485</v>
+        <v>0.0002277573783410803</v>
       </c>
       <c r="E57">
-        <v>0.0002613892069952248</v>
+        <v>0.0002250986869285064</v>
       </c>
       <c r="F57">
-        <v>0.0002732075307959927</v>
+        <v>0.0002466690057536323</v>
       </c>
       <c r="G57">
-        <v>0.0001674016796230032</v>
+        <v>0.0001680228675777037</v>
       </c>
       <c r="H57">
-        <v>0.0002529424124751278</v>
-      </c>
-      <c r="I57">
-        <v>0.0003594181121954805</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>0.0002844079079710373</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.002685554051647816</v>
+        <v>0.003005125675296153</v>
       </c>
       <c r="C58">
-        <v>0.0005536688310180763</v>
+        <v>0.0006812588803917329</v>
       </c>
       <c r="D58">
-        <v>0.001814659104345116</v>
+        <v>0.002232843534266744</v>
       </c>
       <c r="E58">
-        <v>0.001704861292750444</v>
+        <v>0.002031975308298054</v>
       </c>
       <c r="F58">
-        <v>0.001673154517871444</v>
+        <v>0.002033739692885188</v>
       </c>
       <c r="G58">
-        <v>0.001330060520499559</v>
+        <v>0.001575642276295243</v>
       </c>
       <c r="H58">
-        <v>0.003576439773948017</v>
-      </c>
-      <c r="I58">
-        <v>0.0007362489411049925</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>0.003945723350279966</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.0001995557362035833</v>
+        <v>0.0002215818950851503</v>
       </c>
       <c r="C59">
-        <v>0.0002444689896344012</v>
+        <v>0.0002662949771792394</v>
       </c>
       <c r="D59">
-        <v>0.0001925547981184568</v>
+        <v>0.0002126948380171006</v>
       </c>
       <c r="E59">
-        <v>0.0003914563608140065</v>
+        <v>0.0004148884385040956</v>
       </c>
       <c r="F59">
-        <v>0.0001809336762492796</v>
+        <v>0.0002200447895509897</v>
       </c>
       <c r="G59">
-        <v>0.0001720649272511615</v>
+        <v>0.0001986644383930351</v>
       </c>
       <c r="H59">
-        <v>0.0001451438255757653</v>
-      </c>
-      <c r="I59">
-        <v>0.0001365371845752986</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>0.0001757162075794883</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.0005524811203298575</v>
+        <v>0.0005972723615318356</v>
       </c>
       <c r="C60">
-        <v>0.0004534109463083069</v>
+        <v>0.0005393009870685678</v>
       </c>
       <c r="D60">
-        <v>0.0005333687773999927</v>
+        <v>0.0005922297028180876</v>
       </c>
       <c r="E60">
-        <v>0.0005471234688167236</v>
+        <v>0.0006047391010260227</v>
       </c>
       <c r="F60">
-        <v>0.0006668619956436995</v>
+        <v>0.000712048766317412</v>
       </c>
       <c r="G60">
-        <v>0.0004957999706405117</v>
+        <v>0.0005352367445982453</v>
       </c>
       <c r="H60">
-        <v>0.0006257567735587149</v>
-      </c>
-      <c r="I60">
-        <v>0.0004223035762474592</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>0.0006673006198050104</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.0002268033084078685</v>
+        <v>0.0002644356660134844</v>
       </c>
       <c r="C61">
-        <v>0.000218420888968829</v>
+        <v>0.0002483966260773998</v>
       </c>
       <c r="D61">
-        <v>0.0002857503315609201</v>
+        <v>0.000305691909826375</v>
       </c>
       <c r="E61">
-        <v>0.0002267014728316328</v>
+        <v>0.000247358559410821</v>
       </c>
       <c r="F61">
-        <v>0.0004541901376174357</v>
+        <v>0.0004876359161491418</v>
       </c>
       <c r="G61">
-        <v>0.0002157326072223201</v>
+        <v>0.0002295528706943449</v>
       </c>
       <c r="H61">
-        <v>0.0001878702526772347</v>
-      </c>
-      <c r="I61">
-        <v>0.0001808483287058113</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>0.0002282489518927608</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.0002928727636722419</v>
+        <v>0.0003603625305593781</v>
       </c>
       <c r="C62">
-        <v>0.0003021389292930725</v>
+        <v>0.0003683829662779237</v>
       </c>
       <c r="D62">
-        <v>0.0004034668243278587</v>
+        <v>0.0004234799751905782</v>
       </c>
       <c r="E62">
-        <v>0.0006414860405207557</v>
+        <v>0.0006693897812267405</v>
       </c>
       <c r="F62">
-        <v>0.0004652422648871199</v>
+        <v>0.0004854581475951731</v>
       </c>
       <c r="G62">
-        <v>0.0004195301893203914</v>
+        <v>0.0004834842205600601</v>
       </c>
       <c r="H62">
-        <v>0.0002998690294183888</v>
-      </c>
-      <c r="I62">
-        <v>0.0002641684528494232</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>0.000359933697547527</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.0004849546903284167</v>
+        <v>0.0005643919784619793</v>
       </c>
       <c r="C63">
-        <v>0.0004327205359598908</v>
+        <v>0.0005163094896558229</v>
       </c>
       <c r="D63">
-        <v>0.0006412710574544156</v>
+        <v>0.0006640667025337524</v>
       </c>
       <c r="E63">
-        <v>0.000640355450226012</v>
+        <v>0.0006628331860467925</v>
       </c>
       <c r="F63">
-        <v>0.0005666256412240582</v>
+        <v>0.0005924656075860069</v>
       </c>
       <c r="G63">
-        <v>0.0004958873188015531</v>
+        <v>0.0005603429680280954</v>
       </c>
       <c r="H63">
-        <v>0.0005024717980073405</v>
-      </c>
-      <c r="I63">
-        <v>0.000404452383470789</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>0.0005736983097384173</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.0001513294270408203</v>
+        <v>0.0001678592318492052</v>
       </c>
       <c r="C64">
-        <v>8.709258400533241E-05</v>
+        <v>7.984398512149176E-05</v>
       </c>
       <c r="D64">
-        <v>8.148494276881542E-05</v>
+        <v>8.205590357664982E-05</v>
       </c>
       <c r="E64">
-        <v>8.568582265207599E-05</v>
+        <v>9.378087696178417E-05</v>
       </c>
       <c r="F64">
-        <v>8.154825064664383E-05</v>
+        <v>8.803405510571028E-05</v>
       </c>
       <c r="G64">
-        <v>0.0001004289133265309</v>
+        <v>9.472686820142113E-05</v>
       </c>
       <c r="H64">
-        <v>0.000218138852696379</v>
-      </c>
-      <c r="I64">
-        <v>0.0001383667774316562</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>0.0002148321934517655</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.0005678345357173378</v>
+        <v>0.0006938822197177687</v>
       </c>
       <c r="C65">
-        <v>0.0004241565306465671</v>
+        <v>0.0004322210406097435</v>
       </c>
       <c r="D65">
-        <v>0.0009812436754795186</v>
+        <v>0.0009193675009610376</v>
       </c>
       <c r="E65">
-        <v>0.001479376105527975</v>
+        <v>0.001440085594646181</v>
       </c>
       <c r="F65">
-        <v>0.0005523869784008528</v>
+        <v>0.0005690129172546347</v>
       </c>
       <c r="G65">
-        <v>0.0005025916277022854</v>
+        <v>0.0005863899824979484</v>
       </c>
       <c r="H65">
-        <v>0.000832044911471125</v>
-      </c>
-      <c r="I65">
-        <v>0.0007455082367569304</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>0.001011882791540812</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.001027740254947889</v>
+        <v>0.001215064052919265</v>
       </c>
       <c r="C66">
-        <v>0.0003819624291656528</v>
+        <v>0.0004041734669484728</v>
       </c>
       <c r="D66">
-        <v>0.001078345753682879</v>
+        <v>0.0009888808086021511</v>
       </c>
       <c r="E66">
-        <v>0.0009353966953751607</v>
+        <v>0.0008449942620198388</v>
       </c>
       <c r="F66">
-        <v>0.0005608347191903106</v>
+        <v>0.0005257342377747401</v>
       </c>
       <c r="G66">
-        <v>0.0004031868052262015</v>
+        <v>0.0004227659029900245</v>
       </c>
       <c r="H66">
-        <v>0.0005481716054356042</v>
-      </c>
-      <c r="I66">
-        <v>0.0008269297135257254</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>0.0006539475749887753</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.0003439407472127342</v>
+        <v>0.000371373916082872</v>
       </c>
       <c r="C67">
-        <v>0.0005211801890833983</v>
+        <v>0.0006392823273936145</v>
       </c>
       <c r="D67">
-        <v>0.0005748546853518489</v>
+        <v>0.0006153161275101813</v>
       </c>
       <c r="E67">
-        <v>0.0005957236033565483</v>
+        <v>0.0006027346974420726</v>
       </c>
       <c r="F67">
-        <v>0.001582810566588027</v>
+        <v>0.001632925109345029</v>
       </c>
       <c r="G67">
-        <v>0.0006579535157794983</v>
+        <v>0.000786764579548789</v>
       </c>
       <c r="H67">
-        <v>0.0003823154077784112</v>
-      </c>
-      <c r="I67">
-        <v>0.0005549562445542447</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>0.0004011514763441487</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.0002894707055235667</v>
+        <v>0.0003515301681524495</v>
       </c>
       <c r="C68">
-        <v>0.0003302021086388532</v>
+        <v>0.0003853259207715118</v>
       </c>
       <c r="D68">
-        <v>0.0003304859779991585</v>
+        <v>0.0003649979677694013</v>
       </c>
       <c r="E68">
-        <v>0.0004200216893835345</v>
+        <v>0.0004509687461562337</v>
       </c>
       <c r="F68">
-        <v>0.0005579093214249992</v>
+        <v>0.0005882699226971162</v>
       </c>
       <c r="G68">
-        <v>0.0005962566084457674</v>
+        <v>0.0006416551803115998</v>
       </c>
       <c r="H68">
-        <v>0.0002903125964508014</v>
-      </c>
-      <c r="I68">
-        <v>0.0002698564499846027</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>0.000348505299829646</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.0003714002983403921</v>
+        <v>0.0004399678158314796</v>
       </c>
       <c r="C69">
-        <v>0.0003182950380476463</v>
+        <v>0.0003505407656553487</v>
       </c>
       <c r="D69">
-        <v>0.0006587563531521389</v>
+        <v>0.0005741103257914275</v>
       </c>
       <c r="E69">
-        <v>0.0007140640253619887</v>
+        <v>0.0006314536127897737</v>
       </c>
       <c r="F69">
-        <v>0.0004890006444621516</v>
+        <v>0.0004476547842853925</v>
       </c>
       <c r="G69">
-        <v>0.0003971499022889706</v>
+        <v>0.0004162279741139161</v>
       </c>
       <c r="H69">
-        <v>0.0005076684682782171</v>
-      </c>
-      <c r="I69">
-        <v>0.0006340106969027877</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>0.0006127740440999167</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.000534959723271516</v>
+        <v>0.0006109912966753871</v>
       </c>
       <c r="C70">
-        <v>0.0007827191377357757</v>
+        <v>0.0008751860471144327</v>
       </c>
       <c r="D70">
-        <v>0.0009454576314170484</v>
+        <v>0.001163335152602191</v>
       </c>
       <c r="E70">
-        <v>0.001151551081891503</v>
+        <v>0.001361098692129669</v>
       </c>
       <c r="F70">
-        <v>0.003925297738759094</v>
+        <v>0.004288127062099785</v>
       </c>
       <c r="G70">
-        <v>0.0008350778832984102</v>
+        <v>0.0009707300565801795</v>
       </c>
       <c r="H70">
-        <v>0.0009820720972824682</v>
-      </c>
-      <c r="I70">
-        <v>0.0007115249312410464</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>0.001122429987224681</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.0003558982145585071</v>
+        <v>0.00043791215522117</v>
       </c>
       <c r="C71">
-        <v>0.0003454876175431632</v>
+        <v>0.000377393912752689</v>
       </c>
       <c r="D71">
-        <v>0.0003808348058150137</v>
+        <v>0.0004510605722244629</v>
       </c>
       <c r="E71">
-        <v>0.0006757304199750151</v>
+        <v>0.0007244268167880849</v>
       </c>
       <c r="F71">
-        <v>0.001239149589485931</v>
+        <v>0.001370675061157553</v>
       </c>
       <c r="G71">
-        <v>0.0003412233118970049</v>
+        <v>0.0003653676687360093</v>
       </c>
       <c r="H71">
-        <v>0.0004677670142538327</v>
-      </c>
-      <c r="I71">
-        <v>0.0003704341326311423</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>0.0005005680864275236</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.0005430121529002115</v>
+        <v>0.000643830100129122</v>
       </c>
       <c r="C72">
-        <v>0.0005669619507152655</v>
+        <v>0.0006834223558685819</v>
       </c>
       <c r="D72">
-        <v>0.001003281212618139</v>
+        <v>0.001085061016731355</v>
       </c>
       <c r="E72">
-        <v>0.0009093994858658519</v>
+        <v>0.001002782357216948</v>
       </c>
       <c r="F72">
-        <v>0.001943087716159203</v>
+        <v>0.00208375649249273</v>
       </c>
       <c r="G72">
-        <v>0.0009309065691313977</v>
+        <v>0.001045936594703353</v>
       </c>
       <c r="H72">
-        <v>0.0005524535568597292</v>
-      </c>
-      <c r="I72">
-        <v>0.000590477846621846</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>0.0006639546876537412</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.0002407848301036287</v>
+        <v>0.0002372713109412137</v>
       </c>
       <c r="C73">
-        <v>0.0001065082514610821</v>
+        <v>0.0001114675267292821</v>
       </c>
       <c r="D73">
-        <v>0.0001102743633198089</v>
+        <v>0.0001253454635049388</v>
       </c>
       <c r="E73">
-        <v>0.0001096281639099486</v>
+        <v>0.0001273619296146662</v>
       </c>
       <c r="F73">
-        <v>0.0002245813311219864</v>
+        <v>0.0002282630995371955</v>
       </c>
       <c r="G73">
-        <v>0.0001910045334784505</v>
+        <v>0.0002163146745674121</v>
       </c>
       <c r="H73">
-        <v>0.0001156494015360229</v>
-      </c>
-      <c r="I73">
-        <v>0.0001466021671595387</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>0.0001251555728383768</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.001590692260860523</v>
+        <v>0.001740270270863894</v>
       </c>
       <c r="C74">
-        <v>0.0007825866643580213</v>
+        <v>0.0009393199340341402</v>
       </c>
       <c r="D74">
-        <v>0.001080852208641324</v>
+        <v>0.001325317692200521</v>
       </c>
       <c r="E74">
-        <v>0.001179936735424122</v>
+        <v>0.001389820077259072</v>
       </c>
       <c r="F74">
-        <v>0.002990244717276561</v>
+        <v>0.003260304951742881</v>
       </c>
       <c r="G74">
-        <v>0.0008376415117539318</v>
+        <v>0.0009915109260532019</v>
       </c>
       <c r="H74">
-        <v>0.001034438334793155</v>
-      </c>
-      <c r="I74">
-        <v>0.0006943634546095348</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>0.001183909494415229</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.0001375788106832204</v>
+        <v>0.0001603922465401331</v>
       </c>
       <c r="C75">
-        <v>0.0001339510814631411</v>
+        <v>0.0001549007349258486</v>
       </c>
       <c r="D75">
-        <v>0.0001482341980029065</v>
+        <v>0.0001695373355621105</v>
       </c>
       <c r="E75">
-        <v>0.000175546182036496</v>
+        <v>0.0001981298177585002</v>
       </c>
       <c r="F75">
-        <v>0.0004748868372927518</v>
+        <v>0.0005033850998454065</v>
       </c>
       <c r="G75">
-        <v>0.0002353717459389782</v>
+        <v>0.0002605700130624576</v>
       </c>
       <c r="H75">
-        <v>0.0001376075311532181</v>
-      </c>
-      <c r="I75">
-        <v>0.0001303759479922954</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>0.0001684217592035308</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.0001511105683709525</v>
+        <v>0.0001657500470755061</v>
       </c>
       <c r="C76">
-        <v>0.000151362037397458</v>
+        <v>0.0001455143469723113</v>
       </c>
       <c r="D76">
-        <v>0.0003755544358938547</v>
+        <v>0.0003695593734375054</v>
       </c>
       <c r="E76">
-        <v>0.0002752394210465202</v>
+        <v>0.0002618477288474959</v>
       </c>
       <c r="F76">
-        <v>0.0002084575069378137</v>
+        <v>0.0002446161119917886</v>
       </c>
       <c r="G76">
-        <v>0.0001994654712656452</v>
+        <v>0.0001899003655017757</v>
       </c>
       <c r="H76">
-        <v>0.0001499081154771829</v>
-      </c>
-      <c r="I76">
-        <v>0.0002585351598493071</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>0.0001640291737966403</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.000278981488111408</v>
+        <v>0.0002935295220235688</v>
       </c>
       <c r="C77">
-        <v>0.0001782272441577962</v>
+        <v>0.0001999208727749521</v>
       </c>
       <c r="D77">
-        <v>0.0001402527312330018</v>
+        <v>0.0001707157942956076</v>
       </c>
       <c r="E77">
-        <v>0.000132189062536425</v>
+        <v>0.0001601926900335831</v>
       </c>
       <c r="F77">
-        <v>0.0001635064101005409</v>
+        <v>0.00017390802794608</v>
       </c>
       <c r="G77">
-        <v>0.0003148880124737316</v>
+        <v>0.0003336017249368681</v>
       </c>
       <c r="H77">
-        <v>0.0001836278613579293</v>
-      </c>
-      <c r="I77">
-        <v>0.0001429214110017834</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>0.0002046592761532623</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.0001233963665051483</v>
+        <v>0.0001451312109848958</v>
       </c>
       <c r="C78">
-        <v>0.0001606021728566452</v>
+        <v>0.0001783031387091612</v>
       </c>
       <c r="D78">
-        <v>0.0001266384561655719</v>
+        <v>0.0001544953561239335</v>
       </c>
       <c r="E78">
-        <v>0.000112352291829477</v>
+        <v>0.000132748774933293</v>
       </c>
       <c r="F78">
-        <v>0.0001368467800415979</v>
+        <v>0.0001528894470613547</v>
       </c>
       <c r="G78">
-        <v>0.0004500797789256579</v>
+        <v>0.000481869401070797</v>
       </c>
       <c r="H78">
-        <v>0.0001905307182239765</v>
-      </c>
-      <c r="I78">
-        <v>0.000112630371744572</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>0.0002161128948628912</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.0002418382335241017</v>
+        <v>0.0002962420716349565</v>
       </c>
       <c r="C79">
-        <v>0.0001133018753209473</v>
+        <v>0.0001167693314576915</v>
       </c>
       <c r="D79">
-        <v>0.0001212000427152407</v>
+        <v>0.0001139095828827219</v>
       </c>
       <c r="E79">
-        <v>0.0001164654562569797</v>
+        <v>0.0001076216865725011</v>
       </c>
       <c r="F79">
-        <v>8.750896803897648E-05</v>
+        <v>8.124290825256922E-05</v>
       </c>
       <c r="G79">
-        <v>0.0003169980763824589</v>
+        <v>0.0003141289869290668</v>
       </c>
       <c r="H79">
-        <v>0.0001408404471229667</v>
-      </c>
-      <c r="I79">
-        <v>0.0001953437633975209</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>0.000130167129885295</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80">
-        <v>9.870261188220726E-05</v>
+        <v>9.697428266949738E-05</v>
       </c>
       <c r="C80">
-        <v>9.162190525705585E-05</v>
+        <v>8.166597716673961E-05</v>
       </c>
       <c r="D80">
-        <v>0.0001359071758401127</v>
+        <v>0.0001105935362523545</v>
       </c>
       <c r="E80">
-        <v>0.0001942073934901341</v>
+        <v>0.0001698289616529622</v>
       </c>
       <c r="F80">
-        <v>8.538437666151462E-05</v>
+        <v>7.845633181395097E-05</v>
       </c>
       <c r="G80">
-        <v>0.000126308384072442</v>
+        <v>9.676428162639325E-05</v>
       </c>
       <c r="H80">
-        <v>0.0001790986239104764</v>
-      </c>
-      <c r="I80">
-        <v>0.0002237204397187864</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>0.0002116654647502511</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81">
-        <v>7.201346708227993E-05</v>
+        <v>8.320125779812744E-05</v>
       </c>
       <c r="C81">
-        <v>6.794190479856698E-05</v>
+        <v>7.75230802995112E-05</v>
       </c>
       <c r="D81">
-        <v>0.0001172204877572776</v>
+        <v>0.0001242211234774916</v>
       </c>
       <c r="E81">
-        <v>7.691702721655442E-05</v>
+        <v>8.534210053834403E-05</v>
       </c>
       <c r="F81">
-        <v>5.73404522848629E-05</v>
+        <v>6.365655759847259E-05</v>
       </c>
       <c r="G81">
-        <v>0.0003858713209840428</v>
+        <v>0.0004080996160193551</v>
       </c>
       <c r="H81">
-        <v>7.859153383777537E-05</v>
-      </c>
-      <c r="I81">
-        <v>0.000100615744882307</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>8.729316614333686E-05</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.0001791462344475111</v>
+        <v>0.0001909098546407736</v>
       </c>
       <c r="C82">
-        <v>0.000130337276847802</v>
+        <v>0.0001405107137626376</v>
       </c>
       <c r="D82">
-        <v>0.0001399040223313536</v>
+        <v>0.000151829835973725</v>
       </c>
       <c r="E82">
-        <v>0.0001106008463429651</v>
+        <v>0.000127963642516854</v>
       </c>
       <c r="F82">
-        <v>0.0001013245930377397</v>
+        <v>0.0001083005826054575</v>
       </c>
       <c r="G82">
-        <v>0.0003161754468743861</v>
+        <v>0.00033239171988674</v>
       </c>
       <c r="H82">
-        <v>0.0001372272331250317</v>
-      </c>
-      <c r="I82">
-        <v>0.0001331157352438967</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>0.0001559051941337793</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.0001776083451739192</v>
+        <v>0.0001995103206216592</v>
       </c>
       <c r="C83">
-        <v>0.0001341642076501854</v>
+        <v>0.0001580342872888413</v>
       </c>
       <c r="D83">
-        <v>0.000221494291864939</v>
+        <v>0.0002386307188238816</v>
       </c>
       <c r="E83">
-        <v>0.0002150396926365726</v>
+        <v>0.0002293204080903891</v>
       </c>
       <c r="F83">
-        <v>0.0001821107961669999</v>
+        <v>0.0001857558429209758</v>
       </c>
       <c r="G83">
-        <v>0.0001659292833552936</v>
+        <v>0.0001851240787665685</v>
       </c>
       <c r="H83">
-        <v>0.0002282465517629442</v>
-      </c>
-      <c r="I83">
-        <v>0.000158993204881214</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>0.000237838622756795</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.0004736948069431175</v>
+        <v>0.0005247628243224419</v>
       </c>
       <c r="C84">
-        <v>0.0006176648244711595</v>
+        <v>0.0006924334158994961</v>
       </c>
       <c r="D84">
-        <v>0.001325385769480152</v>
+        <v>0.001245258787999498</v>
       </c>
       <c r="E84">
-        <v>0.001478042496096157</v>
+        <v>0.001376168167767615</v>
       </c>
       <c r="F84">
-        <v>0.0007580443858266366</v>
+        <v>0.0007170455599801494</v>
       </c>
       <c r="G84">
-        <v>0.0004965858054712431</v>
+        <v>0.0005281326002200126</v>
       </c>
       <c r="H84">
-        <v>0.001467886507051536</v>
-      </c>
-      <c r="I84">
-        <v>0.001073037127529072</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>0.001738141478533811</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.0001185102315668795</v>
+        <v>0.0001310193221949977</v>
       </c>
       <c r="C85">
-        <v>8.514989960919139E-05</v>
+        <v>8.487392530354644E-05</v>
       </c>
       <c r="D85">
-        <v>8.794381558946954E-05</v>
+        <v>0.0001046800193499782</v>
       </c>
       <c r="E85">
-        <v>0.0001698444759904019</v>
+        <v>0.0001892360239346006</v>
       </c>
       <c r="F85">
-        <v>0.0001265780793553306</v>
+        <v>0.000122552620179388</v>
       </c>
       <c r="G85">
-        <v>0.0001329037913773042</v>
+        <v>0.0001298304843655614</v>
       </c>
       <c r="H85">
-        <v>0.0001031745315597801</v>
-      </c>
-      <c r="I85">
-        <v>0.000121371856773291</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>0.0001024874932928947</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.0008317301821361926</v>
+        <v>0.0009123484825448059</v>
       </c>
       <c r="C86">
-        <v>0.001071789669456506</v>
+        <v>0.001126597200208984</v>
       </c>
       <c r="D86">
-        <v>0.001672378299089677</v>
+        <v>0.00195122739926756</v>
       </c>
       <c r="E86">
-        <v>0.001742039496567249</v>
+        <v>0.00195815042746878</v>
       </c>
       <c r="F86">
-        <v>0.004346900091874982</v>
+        <v>0.004832005023313246</v>
       </c>
       <c r="G86">
-        <v>0.001758605468673926</v>
+        <v>0.001884679120951531</v>
       </c>
       <c r="H86">
-        <v>0.002127669835717617</v>
-      </c>
-      <c r="I86">
-        <v>0.001406557822632076</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>0.002278254913123957</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.0005949997304641963</v>
+        <v>0.0006586798291976572</v>
       </c>
       <c r="C87">
-        <v>0.0004357483020319202</v>
+        <v>0.0005009081565590511</v>
       </c>
       <c r="D87">
-        <v>0.0005097040902375325</v>
+        <v>0.0005466866833566959</v>
       </c>
       <c r="E87">
-        <v>0.0005889144112415887</v>
+        <v>0.0006183252811689453</v>
       </c>
       <c r="F87">
-        <v>0.0007168560942691787</v>
+        <v>0.0007555409412483836</v>
       </c>
       <c r="G87">
-        <v>0.0005798453951705404</v>
+        <v>0.0006616529184651302</v>
       </c>
       <c r="H87">
-        <v>0.000379556363196041</v>
-      </c>
-      <c r="I87">
-        <v>0.0003886831898321707</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>0.0004625818112943302</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.0008114311929492186</v>
+        <v>0.0009490087465353745</v>
       </c>
       <c r="C88">
-        <v>0.001021964847427196</v>
+        <v>0.001083831329804015</v>
       </c>
       <c r="D88">
-        <v>0.001060697172873896</v>
+        <v>0.001305131570723858</v>
       </c>
       <c r="E88">
-        <v>0.001001075815502301</v>
+        <v>0.001094137128938749</v>
       </c>
       <c r="F88">
-        <v>0.002087418782500424</v>
+        <v>0.002326873007282551</v>
       </c>
       <c r="G88">
-        <v>0.001410863812453495</v>
+        <v>0.001470349260190241</v>
       </c>
       <c r="H88">
-        <v>0.0006564809260053239</v>
-      </c>
-      <c r="I88">
-        <v>0.0008042652186668315</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>0.000686098135860515</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.0001688831008509976</v>
+        <v>0.0002062087676312507</v>
       </c>
       <c r="C89">
-        <v>0.0001643068454736898</v>
+        <v>0.0001904842706927243</v>
       </c>
       <c r="D89">
-        <v>0.0002302547754578473</v>
+        <v>0.0002490079246715971</v>
       </c>
       <c r="E89">
-        <v>0.0003741264063648012</v>
+        <v>0.0003949708775470876</v>
       </c>
       <c r="F89">
-        <v>0.0002723435134593756</v>
+        <v>0.0002856210920579833</v>
       </c>
       <c r="G89">
-        <v>0.0001746254457945989</v>
+        <v>0.0001967971735512696</v>
       </c>
       <c r="H89">
-        <v>0.0002304644029940079</v>
-      </c>
-      <c r="I89">
-        <v>0.0001721256462349142</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>0.0002523017894876289</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.0003435341996343095</v>
+        <v>0.0003570686801701834</v>
       </c>
       <c r="C90">
-        <v>0.0002192704784828217</v>
+        <v>0.0002354927480068168</v>
       </c>
       <c r="D90">
-        <v>0.0002009293656599155</v>
+        <v>0.0002188256033352341</v>
       </c>
       <c r="E90">
-        <v>0.0001593964614301447</v>
+        <v>0.0001823114465925471</v>
       </c>
       <c r="F90">
-        <v>0.000105503780555235</v>
+        <v>0.0001288121149297492</v>
       </c>
       <c r="G90">
-        <v>0.0001690720621891086</v>
+        <v>0.0001803566486735568</v>
       </c>
       <c r="H90">
-        <v>0.0001689891274624448</v>
-      </c>
-      <c r="I90">
-        <v>0.0001548773305445089</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>0.0001882161681986224</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.000601997688841414</v>
+        <v>0.0006704060110863478</v>
       </c>
       <c r="C91">
-        <v>0.0006638978202236334</v>
+        <v>0.0007891307288542103</v>
       </c>
       <c r="D91">
-        <v>0.001226723828400835</v>
+        <v>0.001298410721274543</v>
       </c>
       <c r="E91">
-        <v>0.001326012517372412</v>
+        <v>0.001403588171844239</v>
       </c>
       <c r="F91">
-        <v>0.001998322696530329</v>
+        <v>0.002211516967774229</v>
       </c>
       <c r="G91">
-        <v>0.0009263996799548974</v>
+        <v>0.001063421985625253</v>
       </c>
       <c r="H91">
-        <v>0.0008392169521738902</v>
-      </c>
-      <c r="I91">
-        <v>0.0007527912950071981</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>0.0009672261622480461</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.0005696579590268511</v>
+        <v>0.0006507227291017831</v>
       </c>
       <c r="C92">
-        <v>0.0005966181748980924</v>
+        <v>0.0006782858731652213</v>
       </c>
       <c r="D92">
-        <v>0.0007775743641643337</v>
+        <v>0.0008759073927475195</v>
       </c>
       <c r="E92">
-        <v>0.0007960899845230086</v>
+        <v>0.000893727671449564</v>
       </c>
       <c r="F92">
-        <v>0.0008367061913100301</v>
+        <v>0.0009293082907339629</v>
       </c>
       <c r="G92">
-        <v>0.001122408412299891</v>
+        <v>0.001184819756285939</v>
       </c>
       <c r="H92">
-        <v>0.0008982844134297837</v>
-      </c>
-      <c r="I92">
-        <v>0.0005857845297472482</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>0.0009536953779584215</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.0001453862007049595</v>
+        <v>0.0001747381334000846</v>
       </c>
       <c r="C93">
-        <v>0.0001436298610772954</v>
+        <v>0.0001386035083317802</v>
       </c>
       <c r="D93">
-        <v>0.0001207099343565114</v>
+        <v>0.0001260369996964182</v>
       </c>
       <c r="E93">
-        <v>0.000120640412632888</v>
+        <v>0.0001377288868678216</v>
       </c>
       <c r="F93">
-        <v>8.762203966369672E-05</v>
+        <v>9.34956122305509E-05</v>
       </c>
       <c r="G93">
-        <v>0.0002480308064443188</v>
+        <v>0.0002411624045370799</v>
       </c>
       <c r="H93">
-        <v>0.0002012390390386694</v>
-      </c>
-      <c r="I93">
-        <v>0.0001698598999038298</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>0.0001924402888450198</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.0003348872509735137</v>
+        <v>0.0003956668271179335</v>
       </c>
       <c r="C94">
-        <v>0.000311596094892421</v>
+        <v>0.0003474196080437699</v>
       </c>
       <c r="D94">
-        <v>0.0003530241275699775</v>
+        <v>0.0003883205079244854</v>
       </c>
       <c r="E94">
-        <v>0.0005874005399558806</v>
+        <v>0.0006304136326749371</v>
       </c>
       <c r="F94">
-        <v>0.001210200267073017</v>
+        <v>0.001331575952213519</v>
       </c>
       <c r="G94">
-        <v>0.00028479538377208</v>
+        <v>0.0003238153875906744</v>
       </c>
       <c r="H94">
-        <v>0.0003420829456426695</v>
-      </c>
-      <c r="I94">
-        <v>0.0003489609640616157</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>0.000366453940539764</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.0008530379393168977</v>
+        <v>0.001001611861440263</v>
       </c>
       <c r="C95">
-        <v>0.0009376167889191091</v>
+        <v>0.001119148294024063</v>
       </c>
       <c r="D95">
-        <v>0.001333694765365736</v>
+        <v>0.001482727960852757</v>
       </c>
       <c r="E95">
-        <v>0.001482832156204865</v>
+        <v>0.001633833829757572</v>
       </c>
       <c r="F95">
-        <v>0.002900779963780876</v>
+        <v>0.003118611971484453</v>
       </c>
       <c r="G95">
-        <v>0.001341665378667846</v>
+        <v>0.001496133120260915</v>
       </c>
       <c r="H95">
-        <v>0.001085406289523527</v>
-      </c>
-      <c r="I95">
-        <v>0.0009209846281124151</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>0.001239265778852047</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.0005253479379152602</v>
+        <v>0.0006034071408897029</v>
       </c>
       <c r="C96">
-        <v>0.0009313743861848066</v>
+        <v>0.001027938711736722</v>
       </c>
       <c r="D96">
-        <v>0.001170369422946336</v>
+        <v>0.001368238710577633</v>
       </c>
       <c r="E96">
-        <v>0.00100557553993607</v>
+        <v>0.001229408689810574</v>
       </c>
       <c r="F96">
-        <v>0.001554518187485027</v>
+        <v>0.001721693613819298</v>
       </c>
       <c r="G96">
-        <v>0.001477713689684089</v>
+        <v>0.001623218031023357</v>
       </c>
       <c r="H96">
-        <v>0.0009706850599220109</v>
-      </c>
-      <c r="I96">
-        <v>0.0006128370403225772</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>0.00106723233260489</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.000206772697472073</v>
+        <v>0.0002513701606950047</v>
       </c>
       <c r="C97">
-        <v>0.0002495315567525234</v>
+        <v>0.000245825494882713</v>
       </c>
       <c r="D97">
-        <v>0.0002780731337382559</v>
+        <v>0.0002769354301920308</v>
       </c>
       <c r="E97">
-        <v>0.0002295766700074223</v>
+        <v>0.0002200859439299521</v>
       </c>
       <c r="F97">
-        <v>0.0002096691147381499</v>
+        <v>0.0002346331955889059</v>
       </c>
       <c r="G97">
-        <v>0.0001449936632821495</v>
+        <v>0.0001510401949963505</v>
       </c>
       <c r="H97">
-        <v>0.0001700059523841073</v>
-      </c>
-      <c r="I97">
-        <v>0.0002197106743210844</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>0.0001814442265176361</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.0004569198730826951</v>
+        <v>0.000557346836649642</v>
       </c>
       <c r="C98">
-        <v>0.0006083056784727598</v>
+        <v>0.0006627908739208218</v>
       </c>
       <c r="D98">
-        <v>0.0005200811191510985</v>
+        <v>0.0006134107600560598</v>
       </c>
       <c r="E98">
-        <v>0.0005237961082215001</v>
+        <v>0.0006179881061816414</v>
       </c>
       <c r="F98">
-        <v>0.0007525232132326587</v>
+        <v>0.0008580141902883365</v>
       </c>
       <c r="G98">
-        <v>0.0009702716521730217</v>
+        <v>0.001001820874664725</v>
       </c>
       <c r="H98">
-        <v>0.0008335413119930946</v>
-      </c>
-      <c r="I98">
-        <v>0.0004620903485321224</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>0.0008606384620745438</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.001193902244466701</v>
+        <v>0.001345598717258724</v>
       </c>
       <c r="C99">
-        <v>0.0006583842433518153</v>
+        <v>0.0007901889883678807</v>
       </c>
       <c r="D99">
-        <v>0.0009836776563949777</v>
+        <v>0.001147898569290935</v>
       </c>
       <c r="E99">
-        <v>0.001153001057887445</v>
+        <v>0.00134005283084359</v>
       </c>
       <c r="F99">
-        <v>0.001852158979240342</v>
+        <v>0.00200005457214914</v>
       </c>
       <c r="G99">
-        <v>0.0009769868807663225</v>
+        <v>0.001086836557016157</v>
       </c>
       <c r="H99">
-        <v>0.0004964283454761608</v>
-      </c>
-      <c r="I99">
-        <v>0.0005540452700381237</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>0.0006078179070222881</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.0002659867576621071</v>
+        <v>0.0003166052982348164</v>
       </c>
       <c r="C100">
-        <v>0.0001674861077593331</v>
+        <v>0.0001539375212041537</v>
       </c>
       <c r="D100">
-        <v>0.000199265655784116</v>
+        <v>0.0001846376673222596</v>
       </c>
       <c r="E100">
-        <v>0.0001840887011905356</v>
+        <v>0.0001683944882709869</v>
       </c>
       <c r="F100">
-        <v>0.000128459698540567</v>
+        <v>0.0001488232345798159</v>
       </c>
       <c r="G100">
-        <v>0.0002398448832273101</v>
+        <v>0.0002259618802541933</v>
       </c>
       <c r="H100">
-        <v>0.0001778696704202633</v>
-      </c>
-      <c r="I100">
-        <v>0.0002266555888066505</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>0.0001998585283943995</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.0001921996982481699</v>
+        <v>0.0002319383512343026</v>
       </c>
       <c r="C101">
-        <v>0.0002058566445657246</v>
+        <v>0.00021373431239496</v>
       </c>
       <c r="D101">
-        <v>0.0001706212057180089</v>
+        <v>0.0001885918642974677</v>
       </c>
       <c r="E101">
-        <v>0.000176794837815591</v>
+        <v>0.0001827065240919417</v>
       </c>
       <c r="F101">
-        <v>0.000556140128558705</v>
+        <v>0.0005790164258609951</v>
       </c>
       <c r="G101">
-        <v>0.0002583730017965592</v>
+        <v>0.0003003884548656897</v>
       </c>
       <c r="H101">
-        <v>0.000168783914645533</v>
-      </c>
-      <c r="I101">
-        <v>0.0002072227640121513</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>0.0001758127342690968</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.0005290338851176794</v>
+        <v>0.0005591673542548137</v>
       </c>
       <c r="C102">
-        <v>0.0004094489236390147</v>
+        <v>0.0004769725845664767</v>
       </c>
       <c r="D102">
-        <v>0.0005923672448031055</v>
+        <v>0.000653144532242577</v>
       </c>
       <c r="E102">
-        <v>0.0006026662280089343</v>
+        <v>0.0006609073479878999</v>
       </c>
       <c r="F102">
-        <v>0.0004776322276840986</v>
+        <v>0.0005368098249993164</v>
       </c>
       <c r="G102">
-        <v>0.0004142263880987826</v>
+        <v>0.0004416384786275131</v>
       </c>
       <c r="H102">
-        <v>0.0004777656068998511</v>
-      </c>
-      <c r="I102">
-        <v>0.000383608971430102</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>0.0005097879728681969</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.0004759774810523342</v>
+        <v>0.0005055355157867483</v>
       </c>
       <c r="C103">
-        <v>0.0001872750486650672</v>
+        <v>0.0002130462551526858</v>
       </c>
       <c r="D103">
-        <v>0.0001796890181217526</v>
+        <v>0.0002117660630932016</v>
       </c>
       <c r="E103">
-        <v>0.0001929042552019856</v>
+        <v>0.0002182306719572125</v>
       </c>
       <c r="F103">
-        <v>0.0001569152060092278</v>
+        <v>0.0001748775353504849</v>
       </c>
       <c r="G103">
-        <v>0.0001835006651499869</v>
+        <v>0.0002066063202302857</v>
       </c>
       <c r="H103">
-        <v>0.0002806386058585038</v>
-      </c>
-      <c r="I103">
-        <v>0.0001692341043027153</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>0.0003004380768244599</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.0003294849134315967</v>
+        <v>0.0003748271387849252</v>
       </c>
       <c r="C104">
-        <v>0.000368929631105376</v>
+        <v>0.0003926779017194295</v>
       </c>
       <c r="D104">
-        <v>0.0005928121562336866</v>
+        <v>0.0006843521080746566</v>
       </c>
       <c r="E104">
-        <v>0.0009216552957130032</v>
+        <v>0.001134047584263272</v>
       </c>
       <c r="F104">
-        <v>0.0007955713295249837</v>
+        <v>0.0008208719843364599</v>
       </c>
       <c r="G104">
-        <v>0.0005376736132724083</v>
+        <v>0.0005648729094671613</v>
       </c>
       <c r="H104">
-        <v>0.0002701491797263172</v>
-      </c>
-      <c r="I104">
-        <v>0.0003346559797113409</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>0.0003123101569977215</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.0005982205552914211</v>
+        <v>0.0007028021994057638</v>
       </c>
       <c r="C105">
-        <v>0.0006889359875735599</v>
+        <v>0.0007546187013367984</v>
       </c>
       <c r="D105">
-        <v>0.0007691887042403389</v>
+        <v>0.0008803741539963969</v>
       </c>
       <c r="E105">
-        <v>0.000849683218056402</v>
+        <v>0.0009597090162354086</v>
       </c>
       <c r="F105">
-        <v>0.0007657477934080795</v>
+        <v>0.0008795340979461918</v>
       </c>
       <c r="G105">
-        <v>0.001249375093108318</v>
+        <v>0.001317510047934745</v>
       </c>
       <c r="H105">
-        <v>0.0009414047794831406</v>
-      </c>
-      <c r="I105">
-        <v>0.000595708330890835</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>0.0009860437700905469</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.0005511197732922445</v>
+        <v>0.0006450744546393093</v>
       </c>
       <c r="C106">
-        <v>0.0006134694992685593</v>
+        <v>0.0006788947971230661</v>
       </c>
       <c r="D106">
-        <v>0.0006254561011146221</v>
+        <v>0.0007157850479537615</v>
       </c>
       <c r="E106">
-        <v>0.0007190899401809408</v>
+        <v>0.000805610282533718</v>
       </c>
       <c r="F106">
-        <v>0.0007472701822748288</v>
+        <v>0.0008469562402411431</v>
       </c>
       <c r="G106">
-        <v>0.001012860076580532</v>
+        <v>0.001052446053730202</v>
       </c>
       <c r="H106">
-        <v>0.0007985885362399484</v>
-      </c>
-      <c r="I106">
-        <v>0.0005254988122957451</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>0.0008443737853390553</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.001266764928018196</v>
+        <v>0.001486634424698675</v>
       </c>
       <c r="C107">
-        <v>0.001179788166083672</v>
+        <v>0.001398274089795083</v>
       </c>
       <c r="D107">
-        <v>0.002646103281884612</v>
+        <v>0.003146712614417332</v>
       </c>
       <c r="E107">
-        <v>0.001850859556831673</v>
+        <v>0.002174301713029975</v>
       </c>
       <c r="F107">
-        <v>0.004391001758112706</v>
+        <v>0.004936873533795906</v>
       </c>
       <c r="G107">
-        <v>0.001929355813059117</v>
+        <v>0.002271693711826485</v>
       </c>
       <c r="H107">
-        <v>0.001305319117326806</v>
-      </c>
-      <c r="I107">
-        <v>0.0008219659708193686</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>0.001500778487602085</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.0002184741891951809</v>
+        <v>0.0002221983762907606</v>
       </c>
       <c r="C108">
-        <v>0.0001402874989979107</v>
+        <v>0.0001677292482921504</v>
       </c>
       <c r="D108">
-        <v>0.0001422807676466124</v>
+        <v>0.000174011587109845</v>
       </c>
       <c r="E108">
-        <v>0.0001105432289847394</v>
+        <v>0.000128638933508629</v>
       </c>
       <c r="F108">
-        <v>0.0003464254625395715</v>
+        <v>0.0003609466865240482</v>
       </c>
       <c r="G108">
-        <v>0.0001458513987729379</v>
+        <v>0.0001678686537660156</v>
       </c>
       <c r="H108">
-        <v>0.0001279998543261038</v>
-      </c>
-      <c r="I108">
-        <v>0.0001243917562028029</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>0.0001412956108030694</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.001065301227635419</v>
+        <v>0.001224550727483297</v>
       </c>
       <c r="C109">
-        <v>0.0005951412472103946</v>
+        <v>0.0006952090760015798</v>
       </c>
       <c r="D109">
-        <v>0.0009726948904642319</v>
+        <v>0.001095976901241034</v>
       </c>
       <c r="E109">
-        <v>0.001098320238167043</v>
+        <v>0.001211424703397011</v>
       </c>
       <c r="F109">
-        <v>0.001418474231756119</v>
+        <v>0.00151065923860427</v>
       </c>
       <c r="G109">
-        <v>0.001166479678398003</v>
+        <v>0.00133768553705772</v>
       </c>
       <c r="H109">
-        <v>0.0008318043739787209</v>
-      </c>
-      <c r="I109">
-        <v>0.0006200435953582725</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>0.0009570816961595647</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.0003251954778009365</v>
+        <v>0.000388031892935843</v>
       </c>
       <c r="C110">
-        <v>0.0003237644099208279</v>
+        <v>0.0003958461501781463</v>
       </c>
       <c r="D110">
-        <v>0.0003357931816669058</v>
+        <v>0.0003514778777254436</v>
       </c>
       <c r="E110">
-        <v>0.0003267588215829891</v>
+        <v>0.0003409993849819645</v>
       </c>
       <c r="F110">
-        <v>0.0008271494320650996</v>
+        <v>0.0008529866586034614</v>
       </c>
       <c r="G110">
-        <v>0.0005261570439587011</v>
+        <v>0.0005955739169611884</v>
       </c>
       <c r="H110">
-        <v>0.0002940607554398078</v>
-      </c>
-      <c r="I110">
-        <v>0.000322272871421508</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>0.0003192971182393743</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.0006571364167584731</v>
+        <v>0.0007619588665252055</v>
       </c>
       <c r="C111">
-        <v>0.0007084447682138622</v>
+        <v>0.0008662832740387667</v>
       </c>
       <c r="D111">
-        <v>0.001909826751920581</v>
+        <v>0.002181009619841554</v>
       </c>
       <c r="E111">
-        <v>0.001068765527010785</v>
+        <v>0.001254315431594862</v>
       </c>
       <c r="F111">
-        <v>0.002348875190474381</v>
+        <v>0.002470192347252422</v>
       </c>
       <c r="G111">
-        <v>0.0005747317933657609</v>
+        <v>0.0006727287107841626</v>
       </c>
       <c r="H111">
-        <v>0.0009273571114200785</v>
-      </c>
-      <c r="I111">
-        <v>0.0006851124279066939</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>0.001034219810997551</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.0007260496333337036</v>
+        <v>0.0008467221749302589</v>
       </c>
       <c r="C112">
-        <v>0.0008853734847491234</v>
+        <v>0.001055028793465066</v>
       </c>
       <c r="D112">
-        <v>0.001301948535436074</v>
+        <v>0.001450077446143876</v>
       </c>
       <c r="E112">
-        <v>0.001357341074655809</v>
+        <v>0.001536084710051872</v>
       </c>
       <c r="F112">
-        <v>0.003513481319383038</v>
+        <v>0.003929378434587375</v>
       </c>
       <c r="G112">
-        <v>0.00143481668021078</v>
+        <v>0.001561715889341472</v>
       </c>
       <c r="H112">
-        <v>0.001635568123696885</v>
-      </c>
-      <c r="I112">
-        <v>0.000984043648387336</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>0.001766188680524267</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.0005783189581406612</v>
+        <v>0.0006590664741407254</v>
       </c>
       <c r="C113">
-        <v>0.0006157412967229236</v>
+        <v>0.0007033533313715232</v>
       </c>
       <c r="D113">
-        <v>0.00089081010833399</v>
+        <v>0.001046123953866218</v>
       </c>
       <c r="E113">
-        <v>0.00105345881615357</v>
+        <v>0.001210482912247269</v>
       </c>
       <c r="F113">
-        <v>0.00113899432610828</v>
+        <v>0.001268506966151871</v>
       </c>
       <c r="G113">
-        <v>0.001442538571062201</v>
+        <v>0.001544026432536922</v>
       </c>
       <c r="H113">
-        <v>0.001128357939444871</v>
-      </c>
-      <c r="I113">
-        <v>0.000630313297692303</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>0.00121926173784336</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.0002644440187982504</v>
+        <v>0.0003253824000949036</v>
       </c>
       <c r="C114">
-        <v>0.0002991856641817819</v>
+        <v>0.0003519451515173248</v>
       </c>
       <c r="D114">
-        <v>0.0004298204709800747</v>
+        <v>0.0004467515720421102</v>
       </c>
       <c r="E114">
-        <v>0.0005170604522061757</v>
+        <v>0.000535719124534834</v>
       </c>
       <c r="F114">
-        <v>0.0004434112455768709</v>
+        <v>0.0004687828367640895</v>
       </c>
       <c r="G114">
-        <v>0.0004054864945850535</v>
+        <v>0.0004735977428029692</v>
       </c>
       <c r="H114">
-        <v>0.0002803857805336725</v>
-      </c>
-      <c r="I114">
-        <v>0.0002537237066483116</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>0.0003337625233577606</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.0004192398373487466</v>
+        <v>0.0004452087905083154</v>
       </c>
       <c r="C115">
-        <v>0.0004214628529316481</v>
+        <v>0.0003761380427858267</v>
       </c>
       <c r="D115">
-        <v>0.0004429993012299029</v>
+        <v>0.0004073461455108753</v>
       </c>
       <c r="E115">
-        <v>0.0003859519750724436</v>
+        <v>0.0004078933774910259</v>
       </c>
       <c r="F115">
-        <v>0.0009644308582274222</v>
+        <v>0.001138610464394116</v>
       </c>
       <c r="G115">
-        <v>0.0006728625459750095</v>
+        <v>0.0006483868535895963</v>
       </c>
       <c r="H115">
-        <v>0.0004037679658135377</v>
-      </c>
-      <c r="I115">
-        <v>0.0006105153123914479</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>0.000391057979185487</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.0001432209155843094</v>
+        <v>0.0001482284538088804</v>
       </c>
       <c r="C116">
-        <v>0.0001414972579529752</v>
+        <v>0.0001502591259307224</v>
       </c>
       <c r="D116">
-        <v>0.000137386802662523</v>
+        <v>0.0001423451421438353</v>
       </c>
       <c r="E116">
-        <v>9.754887011460554E-05</v>
+        <v>0.0001182634268434709</v>
       </c>
       <c r="F116">
-        <v>0.0001434469768320039</v>
+        <v>0.0001477578878662636</v>
       </c>
       <c r="G116">
-        <v>8.38367985265496E-05</v>
+        <v>0.0001027742047783987</v>
       </c>
       <c r="H116">
-        <v>0.0001127414935993865</v>
-      </c>
-      <c r="I116">
-        <v>0.0001051135113595678</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>0.0001188290797375861</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.0002153343666081395</v>
+        <v>0.0002536620009879478</v>
       </c>
       <c r="C117">
-        <v>0.0002972715678347013</v>
+        <v>0.0003398550123373405</v>
       </c>
       <c r="D117">
-        <v>0.0002234332072882019</v>
+        <v>0.0002575870699900114</v>
       </c>
       <c r="E117">
-        <v>0.000243997029302755</v>
+        <v>0.0002686544916878494</v>
       </c>
       <c r="F117">
-        <v>0.0005697245955251991</v>
+        <v>0.0006092935302486024</v>
       </c>
       <c r="G117">
-        <v>0.0004824823548100251</v>
+        <v>0.0005147786156246265</v>
       </c>
       <c r="H117">
-        <v>0.0002109184273788174</v>
-      </c>
-      <c r="I117">
-        <v>0.0002136750001388143</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>0.0002533522395474311</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.0008356823665644168</v>
+        <v>0.0009984037953435592</v>
       </c>
       <c r="C118">
-        <v>0.001033722437426284</v>
+        <v>0.001171690263591974</v>
       </c>
       <c r="D118">
-        <v>0.001309876344010564</v>
+        <v>0.001461875222099197</v>
       </c>
       <c r="E118">
-        <v>0.00129041808823689</v>
+        <v>0.001459179085465475</v>
       </c>
       <c r="F118">
-        <v>0.002725134988959255</v>
+        <v>0.002955326497300411</v>
       </c>
       <c r="G118">
-        <v>0.001585430859168443</v>
+        <v>0.001722513097489331</v>
       </c>
       <c r="H118">
-        <v>0.0009516719177584899</v>
-      </c>
-      <c r="I118">
-        <v>0.0009179309340991257</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>0.001076202587223719</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.001054665570719398</v>
+        <v>0.001111737081933715</v>
       </c>
       <c r="C119">
-        <v>0.001030863420959262</v>
+        <v>0.001049813040240088</v>
       </c>
       <c r="D119">
-        <v>0.001499605433604144</v>
+        <v>0.00180088813139812</v>
       </c>
       <c r="E119">
-        <v>0.001486779328756281</v>
+        <v>0.001757581965355763</v>
       </c>
       <c r="F119">
-        <v>0.003611586617062065</v>
+        <v>0.003709544698836862</v>
       </c>
       <c r="G119">
-        <v>0.00116474773470878</v>
+        <v>0.001406030782087381</v>
       </c>
       <c r="H119">
-        <v>0.001136984685211728</v>
-      </c>
-      <c r="I119">
-        <v>0.001210516955528272</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>0.001191699551260698</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.0007413378881638033</v>
+        <v>0.0008548494141436411</v>
       </c>
       <c r="C120">
-        <v>0.0008712082727636342</v>
+        <v>0.0009954231473986623</v>
       </c>
       <c r="D120">
-        <v>0.00131731679109433</v>
+        <v>0.001574155855347795</v>
       </c>
       <c r="E120">
-        <v>0.001712817748936281</v>
+        <v>0.002004313723331047</v>
       </c>
       <c r="F120">
-        <v>0.002869153801371359</v>
+        <v>0.003027269326662134</v>
       </c>
       <c r="G120">
-        <v>0.0007502025963562562</v>
+        <v>0.0009230837229120736</v>
       </c>
       <c r="H120">
-        <v>0.001456898560101927</v>
-      </c>
-      <c r="I120">
-        <v>0.000800704616333861</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>0.001594338910071907</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.0004738000489644252</v>
+        <v>0.0005829843899540157</v>
       </c>
       <c r="C121">
-        <v>0.0006099495293227516</v>
+        <v>0.0007197728231051358</v>
       </c>
       <c r="D121">
-        <v>0.0007301980341902993</v>
+        <v>0.0008937139402825986</v>
       </c>
       <c r="E121">
-        <v>0.0008242675967495415</v>
+        <v>0.0009858926640489403</v>
       </c>
       <c r="F121">
-        <v>0.002310723341001174</v>
+        <v>0.002537282282052109</v>
       </c>
       <c r="G121">
-        <v>0.0008875421745816416</v>
+        <v>0.000970283080610502</v>
       </c>
       <c r="H121">
-        <v>0.001124899527594917</v>
-      </c>
-      <c r="I121">
-        <v>0.0005349134318694825</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>0.001217515268995459</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.0003229251884934528</v>
+        <v>0.0003507195756272497</v>
       </c>
       <c r="C122">
-        <v>0.0003228215431612591</v>
+        <v>0.0003624522788092263</v>
       </c>
       <c r="D122">
-        <v>0.000287815714175389</v>
+        <v>0.0003276858701975906</v>
       </c>
       <c r="E122">
-        <v>0.0003898126607548146</v>
+        <v>0.0004151677132381563</v>
       </c>
       <c r="F122">
-        <v>0.0003213383282579123</v>
+        <v>0.0003396799009145223</v>
       </c>
       <c r="G122">
-        <v>0.0003443625754854862</v>
+        <v>0.0003705465037247791</v>
       </c>
       <c r="H122">
-        <v>0.0004129679713092904</v>
-      </c>
-      <c r="I122">
-        <v>0.0002770790321769853</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>0.000448412453550977</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.0002614936092066871</v>
+        <v>0.0002627499221875748</v>
       </c>
       <c r="C123">
-        <v>0.0002443498279309465</v>
+        <v>0.0002972764044500296</v>
       </c>
       <c r="D123">
-        <v>0.0003150853559299729</v>
+        <v>0.0003168700621870133</v>
       </c>
       <c r="E123">
-        <v>0.0002229371619978071</v>
+        <v>0.0002309746682941638</v>
       </c>
       <c r="F123">
-        <v>0.0002703789961449426</v>
+        <v>0.0002761636268958408</v>
       </c>
       <c r="G123">
-        <v>0.0003505051932701341</v>
+        <v>0.0004023056192588556</v>
       </c>
       <c r="H123">
-        <v>0.0003899750026536233</v>
-      </c>
-      <c r="I123">
-        <v>0.0002382746091112323</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>0.0004487126377996677</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.0009873737466567873</v>
+        <v>0.001170954767947279</v>
       </c>
       <c r="C124">
-        <v>0.0005496694252061133</v>
+        <v>0.00049142716791598</v>
       </c>
       <c r="D124">
-        <v>0.0007445791786863355</v>
+        <v>0.0007140579096559452</v>
       </c>
       <c r="E124">
-        <v>0.0007974038165807899</v>
+        <v>0.0008286010190617719</v>
       </c>
       <c r="F124">
-        <v>0.00130127985394093</v>
+        <v>0.001278185254747583</v>
       </c>
       <c r="G124">
-        <v>0.0005011068021961728</v>
+        <v>0.0004879648310476017</v>
       </c>
       <c r="H124">
-        <v>0.0004060201059100223</v>
-      </c>
-      <c r="I124">
-        <v>0.0008836806352074053</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>0.0004474057375327538</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.0004014066602919793</v>
+        <v>0.0004762452023268655</v>
       </c>
       <c r="C125">
-        <v>0.0005566550139700647</v>
+        <v>0.0006428583309667272</v>
       </c>
       <c r="D125">
-        <v>0.0009598641879704829</v>
+        <v>0.0009556906488337771</v>
       </c>
       <c r="E125">
-        <v>0.000883848256986122</v>
+        <v>0.0008957459643189304</v>
       </c>
       <c r="F125">
-        <v>0.001051721554466958</v>
+        <v>0.00105095586956942</v>
       </c>
       <c r="G125">
-        <v>0.0005839373796218062</v>
+        <v>0.0007003317263090871</v>
       </c>
       <c r="H125">
-        <v>0.001009631540221221</v>
-      </c>
-      <c r="I125">
-        <v>0.0006352803683809434</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>0.001198831567396647</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.0008174301913140211</v>
+        <v>0.0009514952147271305</v>
       </c>
       <c r="C126">
-        <v>0.0007451534479795013</v>
+        <v>0.0008329854248111044</v>
       </c>
       <c r="D126">
-        <v>0.001860678298007074</v>
+        <v>0.001969428795325535</v>
       </c>
       <c r="E126">
-        <v>0.001363966797691722</v>
+        <v>0.001463582949142593</v>
       </c>
       <c r="F126">
-        <v>0.001893215746116633</v>
+        <v>0.002092003190985946</v>
       </c>
       <c r="G126">
-        <v>0.0008680142795140748</v>
+        <v>0.001035487446306505</v>
       </c>
       <c r="H126">
-        <v>0.0009831405132848963</v>
-      </c>
-      <c r="I126">
-        <v>0.0008459664897843356</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>0.001111801360904752</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127">
-        <v>9.336794917424772E-05</v>
+        <v>0.0001142832295825896</v>
       </c>
       <c r="C127">
-        <v>0.0001107888306546309</v>
+        <v>0.0001240118625979591</v>
       </c>
       <c r="D127">
-        <v>9.44897433438792E-05</v>
+        <v>0.0001152673971258119</v>
       </c>
       <c r="E127">
-        <v>0.0001123315600773886</v>
+        <v>0.0001267295542227247</v>
       </c>
       <c r="F127">
-        <v>0.0001285162789198518</v>
+        <v>0.0001406866681790994</v>
       </c>
       <c r="G127">
-        <v>0.0004635755834395846</v>
+        <v>0.000487240359089232</v>
       </c>
       <c r="H127">
-        <v>0.0001088444740285904</v>
-      </c>
-      <c r="I127">
-        <v>0.0001077156158934066</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>0.0001273992571409842</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.0004043357110482809</v>
+        <v>0.0004502650666003438</v>
       </c>
       <c r="C128">
-        <v>0.000946460945108886</v>
+        <v>0.001046378537788432</v>
       </c>
       <c r="D128">
-        <v>0.001078271076430599</v>
+        <v>0.001326755368816541</v>
       </c>
       <c r="E128">
-        <v>0.001331131366269497</v>
+        <v>0.001569322815427252</v>
       </c>
       <c r="F128">
-        <v>0.001391032111086661</v>
+        <v>0.001533336664684339</v>
       </c>
       <c r="G128">
-        <v>0.001178067320251025</v>
+        <v>0.001326377933365822</v>
       </c>
       <c r="H128">
-        <v>0.001631387447890738</v>
-      </c>
-      <c r="I128">
-        <v>0.0006260808754550094</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>0.001772426215305432</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.0006791997344263711</v>
+        <v>0.0007608547369249011</v>
       </c>
       <c r="C129">
-        <v>0.0009619808270625696</v>
+        <v>0.001095928027588851</v>
       </c>
       <c r="D129">
-        <v>0.0008066134377004156</v>
+        <v>0.0009924944056057981</v>
       </c>
       <c r="E129">
-        <v>0.0008146197362889724</v>
+        <v>0.001002345750447317</v>
       </c>
       <c r="F129">
-        <v>0.001671297881782736</v>
+        <v>0.00182211834073731</v>
       </c>
       <c r="G129">
-        <v>0.001376579773330683</v>
+        <v>0.001555099041235067</v>
       </c>
       <c r="H129">
-        <v>0.0006061989888776743</v>
-      </c>
-      <c r="I129">
-        <v>0.0004638910892993559</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>0.0007107588266136108</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.0003401398715013952</v>
+        <v>0.0003931484160785837</v>
       </c>
       <c r="C130">
-        <v>0.0003480898738156944</v>
+        <v>0.0004149583723897332</v>
       </c>
       <c r="D130">
-        <v>0.0004905849282840566</v>
+        <v>0.0005773402007112059</v>
       </c>
       <c r="E130">
-        <v>0.0006308311615829583</v>
+        <v>0.0006788596457569916</v>
       </c>
       <c r="F130">
-        <v>0.0003063941109652822</v>
+        <v>0.0003497107462654713</v>
       </c>
       <c r="G130">
-        <v>0.0009264095417728293</v>
+        <v>0.0009945624474689335</v>
       </c>
       <c r="H130">
-        <v>0.0005753682086370812</v>
-      </c>
-      <c r="I130">
-        <v>0.0003307986910085448</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>0.0006359331177269243</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.0002098581662425437</v>
+        <v>0.0002522366667011457</v>
       </c>
       <c r="C131">
-        <v>0.0002769061814719314</v>
+        <v>0.0003040731025934344</v>
       </c>
       <c r="D131">
-        <v>0.0003354647634272511</v>
+        <v>0.0003702326620705606</v>
       </c>
       <c r="E131">
-        <v>0.0002624482794699786</v>
+        <v>0.0002943933251467026</v>
       </c>
       <c r="F131">
-        <v>0.0002181722096166983</v>
+        <v>0.0002408005289504326</v>
       </c>
       <c r="G131">
-        <v>0.0005501954069548975</v>
+        <v>0.0005905079880513964</v>
       </c>
       <c r="H131">
-        <v>0.0002058509979593606</v>
-      </c>
-      <c r="I131">
-        <v>0.0001866884483792327</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>0.0002514148546598697</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.0002907772348466712</v>
+        <v>0.0003356847199318217</v>
       </c>
       <c r="C132">
-        <v>0.0002696149690589329</v>
+        <v>0.0003296579144596199</v>
       </c>
       <c r="D132">
-        <v>0.0004724842115107393</v>
+        <v>0.0004888860360335535</v>
       </c>
       <c r="E132">
-        <v>0.0005772418109805835</v>
+        <v>0.0005897002374822542</v>
       </c>
       <c r="F132">
-        <v>0.0002375588427976756</v>
+        <v>0.0002740409453071582</v>
       </c>
       <c r="G132">
-        <v>0.0003445851603605838</v>
+        <v>0.0003960473331317746</v>
       </c>
       <c r="H132">
-        <v>0.0005985724273497891</v>
-      </c>
-      <c r="I132">
-        <v>0.0002826008502181556</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>0.0006722400234438592</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.0002739019523147231</v>
+        <v>0.0003321500560817973</v>
       </c>
       <c r="C133">
-        <v>0.0002712819060985838</v>
+        <v>0.0003131349266723779</v>
       </c>
       <c r="D133">
-        <v>0.000572927044778222</v>
+        <v>0.0005856851505576637</v>
       </c>
       <c r="E133">
-        <v>0.0004986950312705219</v>
+        <v>0.0005120189167754446</v>
       </c>
       <c r="F133">
-        <v>0.0002726153192254332</v>
+        <v>0.0003064777972955934</v>
       </c>
       <c r="G133">
-        <v>0.0003648505515654714</v>
+        <v>0.0004154594116053965</v>
       </c>
       <c r="H133">
-        <v>0.0002997373110519027</v>
-      </c>
-      <c r="I133">
-        <v>0.0002553603983666058</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>0.0003634471159603461</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.0004156732657953821</v>
+        <v>0.0004639947055117651</v>
       </c>
       <c r="C134">
-        <v>0.0004596522339976912</v>
+        <v>0.0004537835882993828</v>
       </c>
       <c r="D134">
-        <v>0.0003788500703959174</v>
+        <v>0.0003955991836831294</v>
       </c>
       <c r="E134">
-        <v>0.0003854523566343892</v>
+        <v>0.00045675378991452</v>
       </c>
       <c r="F134">
-        <v>0.0007416284737874365</v>
+        <v>0.0008691603355327444</v>
       </c>
       <c r="G134">
-        <v>0.0007477081336948913</v>
+        <v>0.0007570362280349723</v>
       </c>
       <c r="H134">
-        <v>0.0004580481320956398</v>
-      </c>
-      <c r="I134">
-        <v>0.0004570799554811685</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>0.0004548983873327666</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.0002216004117963412</v>
+        <v>0.0002462055083983235</v>
       </c>
       <c r="C135">
-        <v>0.0001509179955926731</v>
+        <v>0.0001851108259456198</v>
       </c>
       <c r="D135">
-        <v>0.0002686864832227713</v>
+        <v>0.0002866679538366824</v>
       </c>
       <c r="E135">
-        <v>0.0002380121571585896</v>
+        <v>0.0002543513664340691</v>
       </c>
       <c r="F135">
-        <v>0.0001579858320563289</v>
+        <v>0.0001727474002217414</v>
       </c>
       <c r="G135">
-        <v>0.0004112071122161346</v>
+        <v>0.0004368940201345777</v>
       </c>
       <c r="H135">
-        <v>0.0001969830288716742</v>
-      </c>
-      <c r="I135">
-        <v>0.0001808962958508326</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>0.0002200145280321086</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.0005256425054766615</v>
+        <v>0.0006338430592849924</v>
       </c>
       <c r="C136">
-        <v>0.000502085764193926</v>
+        <v>0.0005411950358901461</v>
       </c>
       <c r="D136">
-        <v>0.0008381088763246863</v>
+        <v>0.0008310036339200538</v>
       </c>
       <c r="E136">
-        <v>0.000831169457272991</v>
+        <v>0.0008460389805047793</v>
       </c>
       <c r="F136">
-        <v>0.002153965332699762</v>
+        <v>0.002408203732172796</v>
       </c>
       <c r="G136">
-        <v>0.0007928141669819618</v>
+        <v>0.0008576568703729428</v>
       </c>
       <c r="H136">
-        <v>0.0004499385403928559</v>
-      </c>
-      <c r="I136">
-        <v>0.0007131872147525595</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>0.0005025400033200427</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.0003761895742130888</v>
+        <v>0.0003978626161404852</v>
       </c>
       <c r="C137">
-        <v>0.0001612940050690651</v>
+        <v>0.0001958152639947855</v>
       </c>
       <c r="D137">
-        <v>0.0001842636473793735</v>
+        <v>0.0002188467983265956</v>
       </c>
       <c r="E137">
-        <v>0.0001725612595349809</v>
+        <v>0.0002043474639149185</v>
       </c>
       <c r="F137">
-        <v>0.0003037071327472373</v>
+        <v>0.0003240973418034264</v>
       </c>
       <c r="G137">
-        <v>0.0002563588992244672</v>
+        <v>0.0002772572630535069</v>
       </c>
       <c r="H137">
-        <v>0.0003159448823330664</v>
-      </c>
-      <c r="I137">
-        <v>0.0001791714074209209</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>0.0003396028253439115</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.0001297673733746356</v>
+        <v>0.000138302389691999</v>
       </c>
       <c r="C138">
-        <v>8.902956531417335E-05</v>
+        <v>0.0001034780129130116</v>
       </c>
       <c r="D138">
-        <v>9.470047566812483E-05</v>
+        <v>0.0001055196838090415</v>
       </c>
       <c r="E138">
-        <v>0.0001089310109924029</v>
+        <v>0.0001285390621736578</v>
       </c>
       <c r="F138">
-        <v>0.000366071885640749</v>
+        <v>0.0003900984570947527</v>
       </c>
       <c r="G138">
-        <v>7.245184933751715E-05</v>
+        <v>8.650826583894301E-05</v>
       </c>
       <c r="H138">
-        <v>0.000104910236762756</v>
-      </c>
-      <c r="I138">
-        <v>9.991156453840059E-05</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>0.0001130653310335751</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.0002102949799260492</v>
+        <v>0.0002364606765835752</v>
       </c>
       <c r="C139">
-        <v>0.0001480952319752662</v>
+        <v>0.0001801599768288425</v>
       </c>
       <c r="D139">
-        <v>0.0001890095835604042</v>
+        <v>0.0002154003207486527</v>
       </c>
       <c r="E139">
-        <v>0.0002294176920638297</v>
+        <v>0.0002512104200191541</v>
       </c>
       <c r="F139">
-        <v>0.0001500756486659369</v>
+        <v>0.0001694153836311049</v>
       </c>
       <c r="G139">
-        <v>0.0003652089550701251</v>
+        <v>0.0003800690088778769</v>
       </c>
       <c r="H139">
-        <v>0.0003502234175382915</v>
-      </c>
-      <c r="I139">
-        <v>0.0001801156114088236</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>0.000366461990705648</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.0003096511217763598</v>
+        <v>0.0003464490125243557</v>
       </c>
       <c r="C140">
-        <v>0.0002505501049637779</v>
+        <v>0.0002476967575581102</v>
       </c>
       <c r="D140">
-        <v>0.0005912090443333164</v>
+        <v>0.0005750117980715836</v>
       </c>
       <c r="E140">
-        <v>0.0003812374744899542</v>
+        <v>0.0003470742592785407</v>
       </c>
       <c r="F140">
-        <v>0.0003256212311203836</v>
+        <v>0.000309929645604441</v>
       </c>
       <c r="G140">
-        <v>0.0003186736456457035</v>
+        <v>0.0003251688233459609</v>
       </c>
       <c r="H140">
-        <v>0.0004056162635998024</v>
-      </c>
-      <c r="I140">
-        <v>0.0004285365059195413</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>0.0004990876960201847</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.0002293664872869657</v>
+        <v>0.0002690351212035768</v>
       </c>
       <c r="C141">
-        <v>0.0001792168511846937</v>
+        <v>0.0001961493605838356</v>
       </c>
       <c r="D141">
-        <v>0.000239256804223165</v>
+        <v>0.0002442972122530913</v>
       </c>
       <c r="E141">
-        <v>0.0002510277345563123</v>
+        <v>0.0002561648691010656</v>
       </c>
       <c r="F141">
-        <v>0.0001450359054384483</v>
+        <v>0.0001545338190613802</v>
       </c>
       <c r="G141">
-        <v>0.0001669269178518027</v>
+        <v>0.0001925326752341723</v>
       </c>
       <c r="H141">
-        <v>0.0003490391612230863</v>
-      </c>
-      <c r="I141">
-        <v>0.000183895498196922</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>0.000380356263985049</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.0001735376100950244</v>
+        <v>0.0001945014873165939</v>
       </c>
       <c r="C142">
-        <v>0.0001277055806632734</v>
+        <v>0.0001345921938560436</v>
       </c>
       <c r="D142">
-        <v>0.0001423664105683995</v>
+        <v>0.0001564139222939645</v>
       </c>
       <c r="E142">
-        <v>0.0001238942311778299</v>
+        <v>0.0001248635548021441</v>
       </c>
       <c r="F142">
-        <v>0.000128605643480207</v>
+        <v>0.0001244569402331517</v>
       </c>
       <c r="G142">
-        <v>0.0004116666299072452</v>
+        <v>0.0004163058577348287</v>
       </c>
       <c r="H142">
-        <v>0.0001601267231848791</v>
-      </c>
-      <c r="I142">
-        <v>0.0002072210333903604</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>0.0001539838320508088</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.0002020849808466236</v>
+        <v>0.0002404835715417764</v>
       </c>
       <c r="C143">
-        <v>0.0002245517269211674</v>
+        <v>0.0002636330231198268</v>
       </c>
       <c r="D143">
-        <v>0.0002040776691194561</v>
+        <v>0.0002420795013318524</v>
       </c>
       <c r="E143">
-        <v>0.0002745243675427829</v>
+        <v>0.000306094036436574</v>
       </c>
       <c r="F143">
-        <v>0.0007861071719580715</v>
+        <v>0.0008296975547155306</v>
       </c>
       <c r="G143">
-        <v>0.0002737250877242599</v>
+        <v>0.0003182834376177623</v>
       </c>
       <c r="H143">
-        <v>0.0002044262603306728</v>
-      </c>
-      <c r="I143">
-        <v>0.0001833394589185765</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>0.0002435980121808414</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.0002916621234887692</v>
+        <v>0.0003364906497044937</v>
       </c>
       <c r="C144">
-        <v>0.000267901773353959</v>
+        <v>0.0003129010424384183</v>
       </c>
       <c r="D144">
-        <v>0.0002529696569945995</v>
+        <v>0.0002883668726043168</v>
       </c>
       <c r="E144">
-        <v>0.0003836211558253784</v>
+        <v>0.0004105133271721091</v>
       </c>
       <c r="F144">
-        <v>0.0008121775109676315</v>
+        <v>0.0008572044269027748</v>
       </c>
       <c r="G144">
-        <v>0.0002549351682030564</v>
+        <v>0.0003066450815869418</v>
       </c>
       <c r="H144">
-        <v>0.0002349279074643762</v>
-      </c>
-      <c r="I144">
-        <v>0.0002258988305371925</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>0.0002838268631498914</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.0006830715002125545</v>
+        <v>0.0007795639135735663</v>
       </c>
       <c r="C145">
-        <v>0.000801262882643391</v>
+        <v>0.000955125261703476</v>
       </c>
       <c r="D145">
-        <v>0.001114191291131823</v>
+        <v>0.0013498055197832</v>
       </c>
       <c r="E145">
-        <v>0.001057510618767074</v>
+        <v>0.00129395688574431</v>
       </c>
       <c r="F145">
-        <v>0.002790614169231623</v>
+        <v>0.002949496664938317</v>
       </c>
       <c r="G145">
-        <v>0.0009633363715979856</v>
+        <v>0.001068361239492745</v>
       </c>
       <c r="H145">
-        <v>0.0006256909814562422</v>
-      </c>
-      <c r="I145">
-        <v>0.0006229614313899293</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>0.0007246650911974547</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.0002462060010301778</v>
+        <v>0.0002877725434535276</v>
       </c>
       <c r="C146">
-        <v>0.0001495935307631017</v>
+        <v>0.0001345889639532724</v>
       </c>
       <c r="D146">
-        <v>0.0001518158360104664</v>
+        <v>0.0001286082499679958</v>
       </c>
       <c r="E146">
-        <v>0.0001682918774795038</v>
+        <v>0.0001296666988438085</v>
       </c>
       <c r="F146">
-        <v>0.0002049975484414614</v>
+        <v>0.0001714680587843078</v>
       </c>
       <c r="G146">
-        <v>0.0001450158185426802</v>
+        <v>0.0001104440319831121</v>
       </c>
       <c r="H146">
-        <v>0.0002367532430122381</v>
-      </c>
-      <c r="I146">
-        <v>0.0003626604883994353</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>0.0001940928523051992</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
       <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.0002211508396888906</v>
+        <v>0.0002617642347293954</v>
       </c>
       <c r="C147">
-        <v>0.0002042574636963873</v>
+        <v>0.0002436079606142444</v>
       </c>
       <c r="D147">
-        <v>0.0003333291377625131</v>
+        <v>0.0003284596818035646</v>
       </c>
       <c r="E147">
-        <v>0.0004945492529354862</v>
+        <v>0.0004993166812089546</v>
       </c>
       <c r="F147">
-        <v>0.0002444501771583902</v>
+        <v>0.0002433016976727358</v>
       </c>
       <c r="G147">
-        <v>0.000208396584644088</v>
+        <v>0.0002541978716243699</v>
       </c>
       <c r="H147">
-        <v>0.0002228594964399867</v>
-      </c>
-      <c r="I147">
-        <v>0.0002319153449402549</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>0.0002575224692949073</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
       <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.0003749872095728718</v>
+        <v>0.0004599128013848733</v>
       </c>
       <c r="C148">
-        <v>0.0006405130645038468</v>
+        <v>0.0007174991328243207</v>
       </c>
       <c r="D148">
-        <v>0.0005321499840746708</v>
+        <v>0.0005755451709055511</v>
       </c>
       <c r="E148">
-        <v>0.0006433228362422419</v>
+        <v>0.0006677798706116973</v>
       </c>
       <c r="F148">
-        <v>0.0008142766236932644</v>
+        <v>0.0008616704198168772</v>
       </c>
       <c r="G148">
-        <v>0.0007267606427839807</v>
+        <v>0.0008237195384342885</v>
       </c>
       <c r="H148">
-        <v>0.0004002095211252605</v>
-      </c>
-      <c r="I148">
-        <v>0.0004191834123161145</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>0.0004625789214438027</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
       <c r="A149" s="1">
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.0007299936231986234</v>
+        <v>0.000835112833492072</v>
       </c>
       <c r="C149">
-        <v>0.0007407330303107723</v>
+        <v>0.0008407433451250152</v>
       </c>
       <c r="D149">
-        <v>0.0009010451092510852</v>
+        <v>0.001030297772904253</v>
       </c>
       <c r="E149">
-        <v>0.0009325288969859565</v>
+        <v>0.001062061634046296</v>
       </c>
       <c r="F149">
-        <v>0.001680371161319786</v>
+        <v>0.001813984957095309</v>
       </c>
       <c r="G149">
-        <v>0.001277011899264898</v>
+        <v>0.001387572691738096</v>
       </c>
       <c r="H149">
-        <v>0.0006958586419796804</v>
-      </c>
-      <c r="I149">
-        <v>0.0006496374560344043</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>0.0007917867850932036</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
       <c r="A150" s="1">
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.0004394142925468795</v>
+        <v>0.0004709131249243216</v>
       </c>
       <c r="C150">
-        <v>0.0005388932997738282</v>
+        <v>0.0005789953272469513</v>
       </c>
       <c r="D150">
-        <v>0.00084556838863204</v>
+        <v>0.0009559562628587386</v>
       </c>
       <c r="E150">
-        <v>0.0008250613900799848</v>
+        <v>0.0008832044969684111</v>
       </c>
       <c r="F150">
-        <v>0.001969302056305157</v>
+        <v>0.002002463581193832</v>
       </c>
       <c r="G150">
-        <v>0.001314429836647591</v>
+        <v>0.001517807732617947</v>
       </c>
       <c r="H150">
-        <v>0.0004419796616023623</v>
-      </c>
-      <c r="I150">
-        <v>0.0007371688772154319</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>0.0005272956674632369</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
       <c r="A151" s="1">
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.0001937852328376681</v>
+        <v>0.0002161146755680471</v>
       </c>
       <c r="C151">
-        <v>0.0001931624100775653</v>
+        <v>0.0002270448151625773</v>
       </c>
       <c r="D151">
-        <v>0.0002403727716194247</v>
+        <v>0.0002538522352345538</v>
       </c>
       <c r="E151">
-        <v>0.000173687960575758</v>
+        <v>0.0001921735197172381</v>
       </c>
       <c r="F151">
-        <v>0.0004740642861889543</v>
+        <v>0.0005181535052306081</v>
       </c>
       <c r="G151">
-        <v>0.0002857386844490453</v>
+        <v>0.0003010780822720756</v>
       </c>
       <c r="H151">
-        <v>0.0001965225330393308</v>
-      </c>
-      <c r="I151">
-        <v>0.0001795196799571599</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>0.0002330061810125924</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
       <c r="A152" s="1">
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.0008782092938004947</v>
+        <v>0.00101777118837566</v>
       </c>
       <c r="C152">
-        <v>0.001486600521264582</v>
+        <v>0.001792214656611892</v>
       </c>
       <c r="D152">
-        <v>0.001999890688758015</v>
+        <v>0.002090793559224646</v>
       </c>
       <c r="E152">
-        <v>0.001764799039804633</v>
+        <v>0.001936465207571813</v>
       </c>
       <c r="F152">
-        <v>0.004380601602251558</v>
+        <v>0.004864628973258528</v>
       </c>
       <c r="G152">
-        <v>0.001755148413450302</v>
+        <v>0.00182634457622334</v>
       </c>
       <c r="H152">
-        <v>0.0009445191053281683</v>
-      </c>
-      <c r="I152">
-        <v>0.001391662347639296</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>0.001013365566191164</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
       <c r="A153" s="1">
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.0005113529581329335</v>
+        <v>0.0005810118804108023</v>
       </c>
       <c r="C153">
-        <v>0.0005780459214420009</v>
+        <v>0.0006398428767479641</v>
       </c>
       <c r="D153">
-        <v>0.001440357579121452</v>
+        <v>0.001373435231361295</v>
       </c>
       <c r="E153">
-        <v>0.001483995670992989</v>
+        <v>0.001401844973867845</v>
       </c>
       <c r="F153">
-        <v>0.0007928155661551806</v>
+        <v>0.0007711786179658073</v>
       </c>
       <c r="G153">
-        <v>0.000668045792135103</v>
+        <v>0.0007705758775947513</v>
       </c>
       <c r="H153">
-        <v>0.001296186762741539</v>
-      </c>
-      <c r="I153">
-        <v>0.00101253540877524</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>0.001547366305272737</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
       <c r="A154" s="1">
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.0007455061053662912</v>
+        <v>0.0007936172975209893</v>
       </c>
       <c r="C154">
-        <v>0.001009354383986308</v>
+        <v>0.0009091370944959928</v>
       </c>
       <c r="D154">
-        <v>0.001265827533868238</v>
+        <v>0.001154666015290998</v>
       </c>
       <c r="E154">
-        <v>0.001332551073153646</v>
+        <v>0.001217300095468854</v>
       </c>
       <c r="F154">
-        <v>0.002477238564696659</v>
+        <v>0.002999636337711835</v>
       </c>
       <c r="G154">
-        <v>0.001434291029607092</v>
+        <v>0.001385968554644533</v>
       </c>
       <c r="H154">
-        <v>0.000917216250492679</v>
-      </c>
-      <c r="I154">
-        <v>0.001620070475269814</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>0.0008442298636444057</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
       <c r="A155" s="1">
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.0001260210984920526</v>
+        <v>0.0001182987370338366</v>
       </c>
       <c r="C155">
-        <v>9.386549589334282E-05</v>
+        <v>9.270728885640756E-05</v>
       </c>
       <c r="D155">
-        <v>0.0001171075144837744</v>
+        <v>0.0001120310123428731</v>
       </c>
       <c r="E155">
-        <v>0.0001779359158425099</v>
+        <v>0.0001694641890125531</v>
       </c>
       <c r="F155">
-        <v>0.0001987286079714203</v>
+        <v>0.0001935444473847918</v>
       </c>
       <c r="G155">
-        <v>9.899110120795725E-05</v>
+        <v>0.0001087244308610038</v>
       </c>
       <c r="H155">
-        <v>0.0001769177108955764</v>
-      </c>
-      <c r="I155">
-        <v>0.0001679937169860572</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>0.0002161373176592699</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
       <c r="A156" s="1">
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.0001635884026314517</v>
+        <v>0.0001978309388328279</v>
       </c>
       <c r="C156">
-        <v>0.0001904491452032905</v>
+        <v>0.0002062148979637669</v>
       </c>
       <c r="D156">
-        <v>0.0001514306566065907</v>
+        <v>0.0001827596619060198</v>
       </c>
       <c r="E156">
-        <v>0.0001900968985953444</v>
+        <v>0.0002197066653778005</v>
       </c>
       <c r="F156">
-        <v>0.0002721902645820249</v>
+        <v>0.0002990898955297562</v>
       </c>
       <c r="G156">
-        <v>0.0003131399204381653</v>
+        <v>0.000319613053351184</v>
       </c>
       <c r="H156">
-        <v>0.0002868862410415131</v>
-      </c>
-      <c r="I156">
-        <v>0.0001696045909942785</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>0.0002951733517215603</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
       <c r="A157" s="1">
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.0001110477741855516</v>
+        <v>0.0001366360916280236</v>
       </c>
       <c r="C157">
-        <v>0.0001099964611096111</v>
+        <v>0.0001328261174561122</v>
       </c>
       <c r="D157">
-        <v>0.0002105296735696075</v>
+        <v>0.0002365647779914944</v>
       </c>
       <c r="E157">
-        <v>0.0001535638301499115</v>
+        <v>0.0001785195314400185</v>
       </c>
       <c r="F157">
-        <v>0.0001059127129664081</v>
+        <v>0.00012787993778115</v>
       </c>
       <c r="G157">
-        <v>0.0003874234356698693</v>
+        <v>0.0003982237290241879</v>
       </c>
       <c r="H157">
-        <v>0.0002500799851738544</v>
-      </c>
-      <c r="I157">
-        <v>0.0001339598540508381</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>0.0002592398099405269</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
       <c r="A158" s="1">
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.0007976098544409307</v>
+        <v>0.0008919902913143176</v>
       </c>
       <c r="C158">
-        <v>0.000685915724138551</v>
+        <v>0.0007770183688805793</v>
       </c>
       <c r="D158">
-        <v>0.001128201685269481</v>
+        <v>0.001332370824121717</v>
       </c>
       <c r="E158">
-        <v>0.001164607926458595</v>
+        <v>0.001381415628261072</v>
       </c>
       <c r="F158">
-        <v>0.001583397370259269</v>
+        <v>0.001763151908912708</v>
       </c>
       <c r="G158">
-        <v>0.001385539575994689</v>
+        <v>0.001530728122530768</v>
       </c>
       <c r="H158">
-        <v>0.001453508816973944</v>
-      </c>
-      <c r="I158">
-        <v>0.0006582392962858603</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>0.001601581956384154</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
       <c r="A159" s="1">
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.0008934127592620515</v>
+        <v>0.001002645290754446</v>
       </c>
       <c r="C159">
-        <v>0.001014921688342462</v>
+        <v>0.001121580828283776</v>
       </c>
       <c r="D159">
-        <v>0.001202894424316965</v>
+        <v>0.001461552743160807</v>
       </c>
       <c r="E159">
-        <v>0.001301412431742569</v>
+        <v>0.001586079202479793</v>
       </c>
       <c r="F159">
-        <v>0.002079892101436602</v>
+        <v>0.002359695136726258</v>
       </c>
       <c r="G159">
-        <v>0.001541846026605233</v>
+        <v>0.001629095828070909</v>
       </c>
       <c r="H159">
-        <v>0.001116529358663403</v>
-      </c>
-      <c r="I159">
-        <v>0.0007338879730806881</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>0.001196071277921144</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
       <c r="A160" s="1">
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.0003726582443936281</v>
+        <v>0.0003446583845769443</v>
       </c>
       <c r="C160">
-        <v>0.0006725151697371689</v>
+        <v>0.0008224212541986941</v>
       </c>
       <c r="D160">
-        <v>0.0008361404949549832</v>
+        <v>0.000788841233802186</v>
       </c>
       <c r="E160">
-        <v>0.0009369536686818008</v>
+        <v>0.0008943517256503322</v>
       </c>
       <c r="F160">
-        <v>0.0006425998005187807</v>
+        <v>0.0006669613825627094</v>
       </c>
       <c r="G160">
-        <v>0.0003690747837338356</v>
+        <v>0.0004004466481244947</v>
       </c>
       <c r="H160">
-        <v>0.0006544955109707061</v>
-      </c>
-      <c r="I160">
-        <v>0.0006496732884017091</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>0.0008008052594819986</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
       <c r="A161" s="1">
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.0002618727714130498</v>
+        <v>0.0002657063480850943</v>
       </c>
       <c r="C161">
-        <v>9.354138423599178E-05</v>
+        <v>0.000109481842072073</v>
       </c>
       <c r="D161">
-        <v>0.0001115173222377187</v>
+        <v>0.0001347561127202264</v>
       </c>
       <c r="E161">
-        <v>9.748489225503303E-05</v>
+        <v>0.0001142367167894718</v>
       </c>
       <c r="F161">
-        <v>0.000204942849614976</v>
+        <v>0.0002107541794661887</v>
       </c>
       <c r="G161">
-        <v>0.0001667206315020601</v>
+        <v>0.0001845618976212042</v>
       </c>
       <c r="H161">
-        <v>0.0001129349438948527</v>
-      </c>
-      <c r="I161">
-        <v>0.0001156085627348636</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>0.0001290145582770741</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
       <c r="A162" s="1">
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.000655478118602093</v>
+        <v>0.0007466084598869547</v>
       </c>
       <c r="C162">
-        <v>0.0006321438678447612</v>
+        <v>0.0007313140707820232</v>
       </c>
       <c r="D162">
-        <v>0.001385217456996489</v>
+        <v>0.001558030644230281</v>
       </c>
       <c r="E162">
-        <v>0.0009636072325754335</v>
+        <v>0.001111224819604402</v>
       </c>
       <c r="F162">
-        <v>0.0022700013283687</v>
+        <v>0.002439994420729836</v>
       </c>
       <c r="G162">
-        <v>0.001385150554691866</v>
+        <v>0.001562380303231725</v>
       </c>
       <c r="H162">
-        <v>0.0005677008130851085</v>
-      </c>
-      <c r="I162">
-        <v>0.0006967447257453533</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>0.000663610512642189</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
       <c r="A163" s="1">
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.0001256463787525195</v>
+        <v>0.0001232721434867949</v>
       </c>
       <c r="C163">
-        <v>0.0001803197250365316</v>
+        <v>0.0001570754025301041</v>
       </c>
       <c r="D163">
-        <v>0.0001647561107149046</v>
+        <v>0.0001373121442582948</v>
       </c>
       <c r="E163">
-        <v>0.0001784815007459515</v>
+        <v>0.0001508290594782505</v>
       </c>
       <c r="F163">
-        <v>0.0001612044425401065</v>
+        <v>0.0001469468977471315</v>
       </c>
       <c r="G163">
-        <v>0.0001843024040457062</v>
+        <v>0.0001763633710866474</v>
       </c>
       <c r="H163">
-        <v>0.000274345826635225</v>
-      </c>
-      <c r="I163">
-        <v>0.0002730592367282338</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>0.0003337275920302844</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
       <c r="A164" s="1">
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.0006874180816035987</v>
+        <v>0.0007586101409417958</v>
       </c>
       <c r="C164">
-        <v>0.0006796024868830648</v>
+        <v>0.0007820006308324588</v>
       </c>
       <c r="D164">
-        <v>0.001037038525825589</v>
+        <v>0.001199885206027578</v>
       </c>
       <c r="E164">
-        <v>0.001172320662703513</v>
+        <v>0.001339079448270216</v>
       </c>
       <c r="F164">
-        <v>0.001160659468886884</v>
+        <v>0.001290648291725504</v>
       </c>
       <c r="G164">
-        <v>0.001453254038202899</v>
+        <v>0.001563545028244477</v>
       </c>
       <c r="H164">
-        <v>0.001214604474074894</v>
-      </c>
-      <c r="I164">
-        <v>0.0006932034461310304</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>0.001324633658056825</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
       <c r="A165" s="1">
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.0008932633097059656</v>
+        <v>0.001099112683722505</v>
       </c>
       <c r="C165">
-        <v>0.0008835897408198945</v>
+        <v>0.001087209847238105</v>
       </c>
       <c r="D165">
-        <v>0.002320644339046404</v>
+        <v>0.002407480823884458</v>
       </c>
       <c r="E165">
-        <v>0.001045991756163606</v>
+        <v>0.001204724082059696</v>
       </c>
       <c r="F165">
-        <v>0.002546079155393624</v>
+        <v>0.002768465522786589</v>
       </c>
       <c r="G165">
-        <v>0.001253970783702978</v>
+        <v>0.001388933023296176</v>
       </c>
       <c r="H165">
-        <v>0.001514012131792968</v>
-      </c>
-      <c r="I165">
-        <v>0.000998215405820639</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>0.001683310123819056</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
       <c r="A166" s="1">
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.0007874418496417586</v>
+        <v>0.0008782191287490089</v>
       </c>
       <c r="C166">
-        <v>0.0006426465073898105</v>
+        <v>0.0007856372251761641</v>
       </c>
       <c r="D166">
-        <v>0.001668939152441634</v>
+        <v>0.00188013620201837</v>
       </c>
       <c r="E166">
-        <v>0.001128180855901216</v>
+        <v>0.001359392709189971</v>
       </c>
       <c r="F166">
-        <v>0.002208891954665765</v>
+        <v>0.002389336230365962</v>
       </c>
       <c r="G166">
-        <v>0.001703388479393151</v>
+        <v>0.001905029986602758</v>
       </c>
       <c r="H166">
-        <v>0.0005706723007889324</v>
-      </c>
-      <c r="I166">
-        <v>0.0006643770503229661</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>0.000702180788607155</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
       <c r="A167" s="1">
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.0006083688109355217</v>
+        <v>0.0007472388119365265</v>
       </c>
       <c r="C167">
-        <v>0.0004350396943803464</v>
+        <v>0.0004343094555341556</v>
       </c>
       <c r="D167">
-        <v>0.001038172557976987</v>
+        <v>0.000976625623268214</v>
       </c>
       <c r="E167">
-        <v>0.001506783205030062</v>
+        <v>0.001467429630066565</v>
       </c>
       <c r="F167">
-        <v>0.0005770428219837389</v>
+        <v>0.0005993323729043723</v>
       </c>
       <c r="G167">
-        <v>0.0005078340333883228</v>
+        <v>0.0005908828108746459</v>
       </c>
       <c r="H167">
-        <v>0.000850360389281295</v>
-      </c>
-      <c r="I167">
-        <v>0.0007699055449387146</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>0.001033365947315368</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
       <c r="A168" s="1">
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.0001956487383585537</v>
+        <v>0.0002011894998334828</v>
       </c>
       <c r="C168">
-        <v>0.0001783848606664958</v>
+        <v>0.0002141927776734997</v>
       </c>
       <c r="D168">
-        <v>0.0001642516010185341</v>
+        <v>0.0001730675261544006</v>
       </c>
       <c r="E168">
-        <v>0.0001532637362819496</v>
+        <v>0.0001605271907650062</v>
       </c>
       <c r="F168">
-        <v>0.0001895436523509384</v>
+        <v>0.0002165888783848712</v>
       </c>
       <c r="G168">
-        <v>0.0004794617467672033</v>
+        <v>0.0005175985959548064</v>
       </c>
       <c r="H168">
-        <v>0.0001570182296541363</v>
-      </c>
-      <c r="I168">
-        <v>0.0001767283442565576</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>0.0001666789916042585</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
       <c r="A169" s="1">
         <v>167</v>
       </c>
       <c r="B169">
-        <v>8.057130258169151E-05</v>
+        <v>6.864294389949125E-05</v>
       </c>
       <c r="C169">
-        <v>0.0001002309996025608</v>
+        <v>0.0001181908568294581</v>
       </c>
       <c r="D169">
-        <v>0.0001504149474404789</v>
+        <v>0.000138272402787673</v>
       </c>
       <c r="E169">
-        <v>7.652606730868803E-05</v>
+        <v>7.102291016016952E-05</v>
       </c>
       <c r="F169">
-        <v>4.841239826303475E-05</v>
+        <v>4.865788770135114E-05</v>
       </c>
       <c r="G169">
-        <v>7.124406828434756E-05</v>
+        <v>7.742268192664045E-05</v>
       </c>
       <c r="H169">
-        <v>0.000128274621963998</v>
-      </c>
-      <c r="I169">
-        <v>0.0001388210140346032</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>0.0001137548020075067</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
       <c r="A170" s="1">
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.0003179446317582713</v>
+        <v>0.0003459569350547831</v>
       </c>
       <c r="C170">
-        <v>0.0002006711399908717</v>
+        <v>0.0002087899125188611</v>
       </c>
       <c r="D170">
-        <v>0.0001338686198024608</v>
+        <v>0.0001566499387308209</v>
       </c>
       <c r="E170">
-        <v>0.0001223230588881524</v>
+        <v>0.000147269259865889</v>
       </c>
       <c r="F170">
-        <v>0.0001455551905933453</v>
+        <v>0.0001550014092876012</v>
       </c>
       <c r="G170">
-        <v>0.0001373968408635457</v>
+        <v>0.000151462762983638</v>
       </c>
       <c r="H170">
-        <v>0.0002103844136418248</v>
-      </c>
-      <c r="I170">
-        <v>0.0001331134419407143</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>0.0002314698271570534</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
       <c r="A171" s="1">
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.001007460281299661</v>
+        <v>0.001119394371149637</v>
       </c>
       <c r="C171">
-        <v>0.001003448262694017</v>
+        <v>0.001106480237409229</v>
       </c>
       <c r="D171">
-        <v>0.001286366705241815</v>
+        <v>0.001580260843638148</v>
       </c>
       <c r="E171">
-        <v>0.001451337373661058</v>
+        <v>0.001772062807562242</v>
       </c>
       <c r="F171">
-        <v>0.001860974644892359</v>
+        <v>0.002110376674061701</v>
       </c>
       <c r="G171">
-        <v>0.001490320352575795</v>
+        <v>0.001627773414236234</v>
       </c>
       <c r="H171">
-        <v>0.001522139983292939</v>
-      </c>
-      <c r="I171">
-        <v>0.0007027722761494602</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>0.001658370691669666</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
       <c r="A172" s="1">
         <v>170</v>
       </c>
       <c r="B172">
-        <v>8.196826467806871E-05</v>
+        <v>7.976103221305255E-05</v>
       </c>
       <c r="C172">
-        <v>0.0001142809562352449</v>
+        <v>9.465077590803012E-05</v>
       </c>
       <c r="D172">
-        <v>9.811179718416199E-05</v>
+        <v>8.30999078911762E-05</v>
       </c>
       <c r="E172">
-        <v>0.0001036779781688046</v>
+        <v>9.949324831269939E-05</v>
       </c>
       <c r="F172">
-        <v>9.651759130344818E-05</v>
+        <v>7.73543295137129E-05</v>
       </c>
       <c r="G172">
-        <v>0.0001320039208274375</v>
+        <v>0.000161262073293741</v>
       </c>
       <c r="H172">
-        <v>0.0001146929866391146</v>
-      </c>
-      <c r="I172">
-        <v>0.0001810843745463449</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>9.364092858582748E-05</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
       <c r="A173" s="1">
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.0008834748403881699</v>
+        <v>0.0009854809704868074</v>
       </c>
       <c r="C173">
-        <v>0.000473155286747094</v>
+        <v>0.0005141596026523196</v>
       </c>
       <c r="D173">
-        <v>0.0005858818427365255</v>
+        <v>0.0005932484743766677</v>
       </c>
       <c r="E173">
-        <v>0.0005162108841539525</v>
+        <v>0.0005323877992096993</v>
       </c>
       <c r="F173">
-        <v>0.0005839735636808356</v>
+        <v>0.0005874150758979141</v>
       </c>
       <c r="G173">
-        <v>0.0004118021403075116</v>
+        <v>0.0005035958847629758</v>
       </c>
       <c r="H173">
-        <v>0.0006184726643480759</v>
-      </c>
-      <c r="I173">
-        <v>0.0004707010158247372</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>0.0007161257722780686</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
       <c r="A174" s="1">
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.0007812722247868031</v>
+        <v>0.000954275581566008</v>
       </c>
       <c r="C174">
-        <v>0.0004264658166769074</v>
+        <v>0.0004448924557043056</v>
       </c>
       <c r="D174">
-        <v>0.001245865000913442</v>
+        <v>0.001175752722118152</v>
       </c>
       <c r="E174">
-        <v>0.00112564873598859</v>
+        <v>0.001048000140495314</v>
       </c>
       <c r="F174">
-        <v>0.0007431585662943785</v>
+        <v>0.0007094682410411675</v>
       </c>
       <c r="G174">
-        <v>0.000517464772341223</v>
+        <v>0.0005786675772350691</v>
       </c>
       <c r="H174">
-        <v>0.0009765032574879199</v>
-      </c>
-      <c r="I174">
-        <v>0.0008658546506912642</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>0.001180314516582213</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
       <c r="A175" s="1">
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0.0006943855073808337</v>
+        <v>0.0008306982371439796</v>
       </c>
       <c r="C175">
-        <v>0.001016629969874029</v>
+        <v>0.001158084844229094</v>
       </c>
       <c r="D175">
-        <v>0.001142895665898543</v>
+        <v>0.001373192228561722</v>
       </c>
       <c r="E175">
-        <v>0.00126968251387501</v>
+        <v>0.001493539729148056</v>
       </c>
       <c r="F175">
-        <v>0.003062025600188007</v>
+        <v>0.003260158281175916</v>
       </c>
       <c r="G175">
-        <v>0.001011599082177654</v>
+        <v>0.001146229507124513</v>
       </c>
       <c r="H175">
-        <v>0.000759637427268679</v>
-      </c>
-      <c r="I175">
-        <v>0.0007143276206656141</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>0.0008801130871915743</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
       <c r="A176" s="1">
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0.0005321552053295297</v>
+        <v>0.0006081256984157243</v>
       </c>
       <c r="C176">
-        <v>0.000399527691179959</v>
+        <v>0.0004775067482053722</v>
       </c>
       <c r="D176">
-        <v>0.0005339609109107112</v>
+        <v>0.0005484649984184912</v>
       </c>
       <c r="E176">
-        <v>0.000628910326473453</v>
+        <v>0.0006468906161790647</v>
       </c>
       <c r="F176">
-        <v>0.0006454770946777761</v>
+        <v>0.0006518360063877214</v>
       </c>
       <c r="G176">
-        <v>0.00043961610830686</v>
+        <v>0.0005168327607220765</v>
       </c>
       <c r="H176">
-        <v>0.0003975578086596573</v>
-      </c>
-      <c r="I176">
-        <v>0.0003894791340859751</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+        <v>0.0004726811186742836</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
       <c r="A177" s="1">
         <v>175</v>
       </c>
       <c r="B177">
-        <v>0.001011540594648932</v>
+        <v>0.001113798314135515</v>
       </c>
       <c r="C177">
-        <v>0.001047308095275874</v>
+        <v>0.00116658490283411</v>
       </c>
       <c r="D177">
-        <v>0.001341332718986511</v>
+        <v>0.001569258231670149</v>
       </c>
       <c r="E177">
-        <v>0.001497571400981876</v>
+        <v>0.001708893749515968</v>
       </c>
       <c r="F177">
-        <v>0.001830251739548167</v>
+        <v>0.002039170345165049</v>
       </c>
       <c r="G177">
-        <v>0.001430677915240982</v>
+        <v>0.001520448580640619</v>
       </c>
       <c r="H177">
-        <v>0.001303827457591812</v>
-      </c>
-      <c r="I177">
-        <v>0.0009227078620183529</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+        <v>0.001389642283229083</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
       <c r="A178" s="1">
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0.0003920488543052743</v>
+        <v>0.0004524043295473033</v>
       </c>
       <c r="C178">
-        <v>0.0004315421688404584</v>
+        <v>0.0004749100891106981</v>
       </c>
       <c r="D178">
-        <v>0.0008931651944137026</v>
+        <v>0.0008129554153532482</v>
       </c>
       <c r="E178">
-        <v>0.001303144718623264</v>
+        <v>0.001225340581386359</v>
       </c>
       <c r="F178">
-        <v>0.0005791101347130635</v>
+        <v>0.000544318759296317</v>
       </c>
       <c r="G178">
-        <v>0.0003835217813493264</v>
+        <v>0.0004037879761811457</v>
       </c>
       <c r="H178">
-        <v>0.001057406116965241</v>
-      </c>
-      <c r="I178">
-        <v>0.0008311987064889022</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>0.001264927111225235</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
       <c r="A179" s="1">
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.0001140812971491532</v>
+        <v>0.0001265600297229076</v>
       </c>
       <c r="C179">
-        <v>0.0001164072477987185</v>
+        <v>0.0001262068711238822</v>
       </c>
       <c r="D179">
-        <v>0.0001038114289463598</v>
+        <v>0.00011361265219347</v>
       </c>
       <c r="E179">
-        <v>0.0001084762945344113</v>
+        <v>0.0001182854262509987</v>
       </c>
       <c r="F179">
-        <v>7.537816353285217E-05</v>
+        <v>8.472043310692981E-05</v>
       </c>
       <c r="G179">
-        <v>0.0003255050744614833</v>
+        <v>0.0003413728852631125</v>
       </c>
       <c r="H179">
-        <v>0.0001159965460010309</v>
-      </c>
-      <c r="I179">
-        <v>0.000109764511767209</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+        <v>0.0001349927597254826</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
       <c r="A180" s="1">
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.001439498608375498</v>
+        <v>0.001505626442346463</v>
       </c>
       <c r="C180">
-        <v>0.001215184834262837</v>
+        <v>0.001300655141311798</v>
       </c>
       <c r="D180">
-        <v>0.002174343667295681</v>
+        <v>0.002527143623479131</v>
       </c>
       <c r="E180">
-        <v>0.001968203566893323</v>
+        <v>0.002232481896689643</v>
       </c>
       <c r="F180">
-        <v>0.005499061584694953</v>
+        <v>0.006215903519787064</v>
       </c>
       <c r="G180">
-        <v>0.001497183423266617</v>
+        <v>0.001570404711933454</v>
       </c>
       <c r="H180">
-        <v>0.002422837336987455</v>
-      </c>
-      <c r="I180">
-        <v>0.001627454054866274</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+        <v>0.00259863917074952</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
       <c r="A181" s="1">
         <v>179</v>
       </c>
       <c r="B181">
-        <v>0.0005522756769119716</v>
+        <v>0.0006444603944022253</v>
       </c>
       <c r="C181">
-        <v>0.0007663925589978517</v>
+        <v>0.0009098630689928053</v>
       </c>
       <c r="D181">
-        <v>0.001464615693410195</v>
+        <v>0.001538188781852819</v>
       </c>
       <c r="E181">
-        <v>0.0009952229253013592</v>
+        <v>0.001094557554615712</v>
       </c>
       <c r="F181">
-        <v>0.003155645798000704</v>
+        <v>0.003481770823082662</v>
       </c>
       <c r="G181">
-        <v>0.0007964579427960471</v>
+        <v>0.0008817116465733478</v>
       </c>
       <c r="H181">
-        <v>0.0006258717577899799</v>
-      </c>
-      <c r="I181">
-        <v>0.0008221694210702452</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+        <v>0.0007200407001616603</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
       <c r="A182" s="1">
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.0001169245634545015</v>
+        <v>0.0001283374321046257</v>
       </c>
       <c r="C182">
-        <v>8.406121382111048E-05</v>
+        <v>9.167683605221066E-05</v>
       </c>
       <c r="D182">
-        <v>8.410162730799277E-05</v>
+        <v>9.651113463534583E-05</v>
       </c>
       <c r="E182">
-        <v>9.329602374628824E-05</v>
+        <v>0.0001039872552486029</v>
       </c>
       <c r="F182">
-        <v>0.0001240641963134046</v>
+        <v>0.0001311844580548282</v>
       </c>
       <c r="G182">
-        <v>0.0002606513135267121</v>
+        <v>0.0002760951002602414</v>
       </c>
       <c r="H182">
-        <v>0.0001583722225170039</v>
-      </c>
-      <c r="I182">
-        <v>0.0001098255993202593</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
+        <v>0.0001708991009250144</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
       <c r="A183" s="1">
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.000354990327447409</v>
+        <v>0.000378512295628497</v>
       </c>
       <c r="C183">
-        <v>0.0002024838945661841</v>
+        <v>0.0002203865480657497</v>
       </c>
       <c r="D183">
-        <v>0.0001603697735937249</v>
+        <v>0.0001861613347711277</v>
       </c>
       <c r="E183">
-        <v>0.0001469368548476278</v>
+        <v>0.0001734369040542779</v>
       </c>
       <c r="F183">
-        <v>0.0001186788477497556</v>
+        <v>0.0001375693627841342</v>
       </c>
       <c r="G183">
-        <v>0.0002199860611839109</v>
+        <v>0.0002336013225600537</v>
       </c>
       <c r="H183">
-        <v>0.0002675471487532643</v>
-      </c>
-      <c r="I183">
-        <v>0.0001564324387941606</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+        <v>0.0002878348677386315</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
       <c r="A184" s="1">
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.0002772445706728136</v>
+        <v>0.000306382048738458</v>
       </c>
       <c r="C184">
-        <v>0.0003364070428778337</v>
+        <v>0.0004117505906505506</v>
       </c>
       <c r="D184">
-        <v>0.0002623748461397836</v>
+        <v>0.0002893638656268963</v>
       </c>
       <c r="E184">
-        <v>0.0002550870320269576</v>
+        <v>0.0002889012410128682</v>
       </c>
       <c r="F184">
-        <v>0.0009966872333439666</v>
+        <v>0.001046801721973396</v>
       </c>
       <c r="G184">
-        <v>0.0005621534727244033</v>
+        <v>0.0006320883914543147</v>
       </c>
       <c r="H184">
-        <v>0.0002465195723099949</v>
-      </c>
-      <c r="I184">
-        <v>0.0002918558651144044</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
+        <v>0.0002787830745330703</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
       <c r="A185" s="1">
         <v>183</v>
       </c>
       <c r="B185">
-        <v>0.001123510643244401</v>
+        <v>0.001251455250031042</v>
       </c>
       <c r="C185">
-        <v>0.0005853291054517113</v>
+        <v>0.0007122333195605096</v>
       </c>
       <c r="D185">
-        <v>0.0009401205265488692</v>
+        <v>0.001122792777253048</v>
       </c>
       <c r="E185">
-        <v>0.0009323577564221951</v>
+        <v>0.00113482044565527</v>
       </c>
       <c r="F185">
-        <v>0.002693678227903588</v>
+        <v>0.002867286711901562</v>
       </c>
       <c r="G185">
-        <v>0.0008676131541727609</v>
+        <v>0.001011670838362944</v>
       </c>
       <c r="H185">
-        <v>0.0005838882980587724</v>
-      </c>
-      <c r="I185">
-        <v>0.0005789388928360012</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
+        <v>0.0006944522822996886</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
       <c r="A186" s="1">
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.0001085971361398556</v>
+        <v>0.0001333114427220085</v>
       </c>
       <c r="C186">
-        <v>0.0001873596107966587</v>
+        <v>0.0001922753877922334</v>
       </c>
       <c r="D186">
-        <v>0.0001366946527084062</v>
+        <v>0.0001603566754231104</v>
       </c>
       <c r="E186">
-        <v>0.0001956327630508393</v>
+        <v>0.0002256298320416266</v>
       </c>
       <c r="F186">
-        <v>9.593956084552565E-05</v>
+        <v>0.0001147219069549779</v>
       </c>
       <c r="G186">
-        <v>0.0003774358486109448</v>
+        <v>0.0003858642410995562</v>
       </c>
       <c r="H186">
-        <v>0.0001344972585329121</v>
-      </c>
-      <c r="I186">
-        <v>0.000129418756224108</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9">
+        <v>0.0001496282202325459</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
       <c r="A187" s="1">
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.0003315799384075737</v>
+        <v>0.0003700256047729834</v>
       </c>
       <c r="C187">
-        <v>0.0003230150522726044</v>
+        <v>0.0003493441355446988</v>
       </c>
       <c r="D187">
-        <v>0.0004058343407328612</v>
+        <v>0.0004826627117316722</v>
       </c>
       <c r="E187">
-        <v>0.0004097448260313394</v>
+        <v>0.0004251702850582119</v>
       </c>
       <c r="F187">
-        <v>0.001055647142382361</v>
+        <v>0.001093502976227825</v>
       </c>
       <c r="G187">
-        <v>0.0005356306172267989</v>
+        <v>0.0006261732355165193</v>
       </c>
       <c r="H187">
-        <v>0.0003287175397657255</v>
-      </c>
-      <c r="I187">
-        <v>0.0003656743327700616</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
+        <v>0.0003746116599201256</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
       <c r="A188" s="1">
         <v>186</v>
       </c>
       <c r="B188">
-        <v>8.835665105306472E-05</v>
+        <v>9.581717937867784E-05</v>
       </c>
       <c r="C188">
-        <v>7.651410640820758E-05</v>
+        <v>9.031930345312985E-05</v>
       </c>
       <c r="D188">
-        <v>0.000133653321773335</v>
+        <v>0.0001485567173907235</v>
       </c>
       <c r="E188">
-        <v>7.577458866058083E-05</v>
+        <v>9.323422365847055E-05</v>
       </c>
       <c r="F188">
-        <v>5.705193429608672E-05</v>
+        <v>6.713942009439252E-05</v>
       </c>
       <c r="G188">
-        <v>0.0002418623236959426</v>
+        <v>0.0002473908535624766</v>
       </c>
       <c r="H188">
-        <v>0.0001231821776339406</v>
-      </c>
-      <c r="I188">
-        <v>9.064292989906526E-05</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9">
+        <v>0.0001259371703199972</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
       <c r="A189" s="1">
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.0006540536485673342</v>
+        <v>0.0007742247625341195</v>
       </c>
       <c r="C189">
-        <v>0.0007663400608341792</v>
+        <v>0.0008483227314119233</v>
       </c>
       <c r="D189">
-        <v>0.0008757220085881973</v>
+        <v>0.001003418172432269</v>
       </c>
       <c r="E189">
-        <v>0.0008354962053393869</v>
+        <v>0.0009621553569712267</v>
       </c>
       <c r="F189">
-        <v>0.001677646602422783</v>
+        <v>0.001829055632575487</v>
       </c>
       <c r="G189">
-        <v>0.001127236651606103</v>
+        <v>0.001216506044678742</v>
       </c>
       <c r="H189">
-        <v>0.0009477587377286396</v>
-      </c>
-      <c r="I189">
-        <v>0.0006601009672787573</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9">
+        <v>0.001024824776582683</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
       <c r="A190" s="1">
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.0001476250631590241</v>
+        <v>0.0001443088138051946</v>
       </c>
       <c r="C190">
-        <v>0.0001057637851321486</v>
+        <v>0.0001180712026322562</v>
       </c>
       <c r="D190">
-        <v>0.0001429790240122984</v>
+        <v>0.0001411038123475593</v>
       </c>
       <c r="E190">
-        <v>0.0001100286741149196</v>
+        <v>0.0001159195283990718</v>
       </c>
       <c r="F190">
-        <v>7.417313592075886E-05</v>
+        <v>8.945011700857025E-05</v>
       </c>
       <c r="G190">
-        <v>8.351743204709337E-05</v>
+        <v>9.897105650206034E-05</v>
       </c>
       <c r="H190">
-        <v>0.0001162685919898271</v>
-      </c>
-      <c r="I190">
-        <v>9.885673797666864E-05</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9">
+        <v>0.0001307279967210498</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
       <c r="A191" s="1">
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.0005895655718383912</v>
+        <v>0.0006642784284703351</v>
       </c>
       <c r="C191">
-        <v>0.0007857438778852466</v>
+        <v>0.000795390675686618</v>
       </c>
       <c r="D191">
-        <v>0.001183453181342323</v>
+        <v>0.00115382251492087</v>
       </c>
       <c r="E191">
-        <v>0.001138651584623083</v>
+        <v>0.001142281856376829</v>
       </c>
       <c r="F191">
-        <v>0.00198964114433823</v>
+        <v>0.002308551771829801</v>
       </c>
       <c r="G191">
-        <v>0.00119529902708017</v>
+        <v>0.001256325368137776</v>
       </c>
       <c r="H191">
-        <v>0.0006731232455710742</v>
-      </c>
-      <c r="I191">
-        <v>0.0009799812329039457</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9">
+        <v>0.0007701671815517792</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
       <c r="A192" s="1">
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.0002482927496263337</v>
+        <v>0.0002756007696154046</v>
       </c>
       <c r="C192">
-        <v>0.0002458615377096262</v>
+        <v>0.0002955818113937279</v>
       </c>
       <c r="D192">
-        <v>0.0002521201834592763</v>
+        <v>0.0002670845818410816</v>
       </c>
       <c r="E192">
-        <v>0.0002820742812850577</v>
+        <v>0.0002938625980531162</v>
       </c>
       <c r="F192">
-        <v>0.0007418107620551313</v>
+        <v>0.0007703713163618453</v>
       </c>
       <c r="G192">
-        <v>0.0003832092048799215</v>
+        <v>0.0004370493074067136</v>
       </c>
       <c r="H192">
-        <v>0.0002310019663122159</v>
-      </c>
-      <c r="I192">
-        <v>0.0002602760162894959</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
+        <v>0.0002740430754160911</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
       <c r="A193" s="1">
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.000550247505381881</v>
+        <v>0.0006451108270211379</v>
       </c>
       <c r="C193">
-        <v>0.000605848181826215</v>
+        <v>0.0006779324385682953</v>
       </c>
       <c r="D193">
-        <v>0.0007054219358465892</v>
+        <v>0.000862092970738454</v>
       </c>
       <c r="E193">
-        <v>0.0006658496888866406</v>
+        <v>0.0007886264653818359</v>
       </c>
       <c r="F193">
-        <v>0.002230547443506106</v>
+        <v>0.002450268804052461</v>
       </c>
       <c r="G193">
-        <v>0.000940950059771729</v>
+        <v>0.001000082150192837</v>
       </c>
       <c r="H193">
-        <v>0.0008958136624557199</v>
-      </c>
-      <c r="I193">
-        <v>0.0006024285705149812</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9">
+        <v>0.0009490488771288996</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
       <c r="A194" s="1">
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.0004944765244454688</v>
+        <v>0.000590379454694992</v>
       </c>
       <c r="C194">
-        <v>0.0005290215097578479</v>
+        <v>0.0006373085712919994</v>
       </c>
       <c r="D194">
-        <v>0.0008168222351057244</v>
+        <v>0.0009212576781402682</v>
       </c>
       <c r="E194">
-        <v>0.0007823981357903929</v>
+        <v>0.0008934635485951602</v>
       </c>
       <c r="F194">
-        <v>0.002213804764102645</v>
+        <v>0.00237902621188779</v>
       </c>
       <c r="G194">
-        <v>0.001028112912324429</v>
+        <v>0.001165537327411828</v>
       </c>
       <c r="H194">
-        <v>0.0005228320358125536</v>
-      </c>
-      <c r="I194">
-        <v>0.0005270447443502183</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9">
+        <v>0.0006239838686456933</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
       <c r="A195" s="1">
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0.0004996567442683124</v>
+        <v>0.0005399361825691476</v>
       </c>
       <c r="C195">
-        <v>0.0005060693886619916</v>
+        <v>0.0005627973491219187</v>
       </c>
       <c r="D195">
-        <v>0.0006986684076567254</v>
+        <v>0.0008491308943344833</v>
       </c>
       <c r="E195">
-        <v>0.0008169694438561389</v>
+        <v>0.0009661295490153527</v>
       </c>
       <c r="F195">
-        <v>0.001420978915093312</v>
+        <v>0.001566527887608623</v>
       </c>
       <c r="G195">
-        <v>0.001384034571689</v>
+        <v>0.001498058477889308</v>
       </c>
       <c r="H195">
-        <v>0.0006644151999203947</v>
-      </c>
-      <c r="I195">
-        <v>0.0005461556308259862</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9">
+        <v>0.0007167723000931271</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
       <c r="A196" s="1">
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.0007872451831464781</v>
+        <v>0.0009339237364409992</v>
       </c>
       <c r="C196">
-        <v>0.0005873221790175663</v>
+        <v>0.0006838068645906036</v>
       </c>
       <c r="D196">
-        <v>0.0009360936851121193</v>
+        <v>0.0009513374868710164</v>
       </c>
       <c r="E196">
-        <v>0.001203053979807423</v>
+        <v>0.001209989989714212</v>
       </c>
       <c r="F196">
-        <v>0.002380500317734797</v>
+        <v>0.002656902418406591</v>
       </c>
       <c r="G196">
-        <v>0.0005281096432065646</v>
+        <v>0.0005837865707422992</v>
       </c>
       <c r="H196">
-        <v>0.0005668121305349181</v>
-      </c>
-      <c r="I196">
-        <v>0.0007796212373350395</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9">
+        <v>0.0006207502414540259</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
       <c r="A197" s="1">
         <v>195</v>
       </c>
       <c r="B197">
-        <v>0.0003186520090041818</v>
+        <v>0.0003526871047014371</v>
       </c>
       <c r="C197">
-        <v>0.0004388638274779636</v>
+        <v>0.0004918393362644351</v>
       </c>
       <c r="D197">
-        <v>0.0002584190363459858</v>
+        <v>0.0003034757854281609</v>
       </c>
       <c r="E197">
-        <v>0.0002968122514344336</v>
+        <v>0.000326377184870981</v>
       </c>
       <c r="F197">
-        <v>0.0005130846892300212</v>
+        <v>0.0005405847604985466</v>
       </c>
       <c r="G197">
-        <v>0.0005211072500055113</v>
+        <v>0.0005685640865232587</v>
       </c>
       <c r="H197">
-        <v>0.0003153151896209637</v>
-      </c>
-      <c r="I197">
-        <v>0.0002622957613627694</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9">
+        <v>0.0003695016613382959</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
       <c r="A198" s="1">
         <v>196</v>
       </c>
       <c r="B198">
-        <v>0.0002585967419245009</v>
+        <v>0.0003111004445050034</v>
       </c>
       <c r="C198">
-        <v>0.000218780544096953</v>
+        <v>0.0002595093284041496</v>
       </c>
       <c r="D198">
-        <v>0.0003294358346557525</v>
+        <v>0.000347572933987222</v>
       </c>
       <c r="E198">
-        <v>0.0004536931220029288</v>
+        <v>0.0004687637848575242</v>
       </c>
       <c r="F198">
-        <v>0.0002379283972905632</v>
+        <v>0.0002549990635472497</v>
       </c>
       <c r="G198">
-        <v>0.000326218728312691</v>
+        <v>0.0003622683763577265</v>
       </c>
       <c r="H198">
-        <v>0.0005002959159376654</v>
-      </c>
-      <c r="I198">
-        <v>0.0002491789755417678</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9">
+        <v>0.000549918850954424</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
       <c r="A199" s="1">
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.0003774499746858882</v>
+        <v>0.0003962730622925994</v>
       </c>
       <c r="C199">
-        <v>0.0001146373784090566</v>
+        <v>0.0001262116347197483</v>
       </c>
       <c r="D199">
-        <v>0.000128529034873618</v>
+        <v>0.0001520552075378715</v>
       </c>
       <c r="E199">
-        <v>0.0001310857668366068</v>
+        <v>0.0001395155901944439</v>
       </c>
       <c r="F199">
-        <v>0.0001322767146275438</v>
+        <v>0.0001505858420441332</v>
       </c>
       <c r="G199">
-        <v>0.0001749262730346942</v>
+        <v>0.0001840783032946855</v>
       </c>
       <c r="H199">
-        <v>0.0001382535877867774</v>
-      </c>
-      <c r="I199">
-        <v>0.0001439818986927914</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9">
+        <v>0.0001471636700239231</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
       <c r="A200" s="1">
         <v>198</v>
       </c>
       <c r="B200">
-        <v>0.0002144911521102379</v>
+        <v>0.0002445532615915265</v>
       </c>
       <c r="C200">
-        <v>0.000188300071670637</v>
+        <v>0.00021817204160768</v>
       </c>
       <c r="D200">
-        <v>0.0003638375446930192</v>
+        <v>0.0004154538869962062</v>
       </c>
       <c r="E200">
-        <v>0.0003087813573305136</v>
+        <v>0.0003605205482603141</v>
       </c>
       <c r="F200">
-        <v>0.0009208024673672242</v>
+        <v>0.0009929683062561486</v>
       </c>
       <c r="G200">
-        <v>0.0002385832289369533</v>
+        <v>0.0002850490351228129</v>
       </c>
       <c r="H200">
-        <v>0.0002273330436767234</v>
-      </c>
-      <c r="I200">
-        <v>0.0002037605379009152</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9">
+        <v>0.0002620933156194355</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
       <c r="A201" s="1">
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0.0003391039633819394</v>
+        <v>0.0003395539642460482</v>
       </c>
       <c r="C201">
-        <v>0.0002466830510012473</v>
+        <v>0.0002851931095774519</v>
       </c>
       <c r="D201">
-        <v>0.0003948668981080541</v>
+        <v>0.0004002487522514169</v>
       </c>
       <c r="E201">
-        <v>0.0003531467191866632</v>
+        <v>0.0003556117386867812</v>
       </c>
       <c r="F201">
-        <v>0.0002530300368430281</v>
+        <v>0.000285580252116728</v>
       </c>
       <c r="G201">
-        <v>0.0003380117245845237</v>
+        <v>0.0003800479155439944</v>
       </c>
       <c r="H201">
-        <v>0.0003587319865625965</v>
-      </c>
-      <c r="I201">
-        <v>0.000292647405759313</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9">
+        <v>0.0004035016246288446</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
       <c r="A202" s="1">
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0.0003115822341740979</v>
+        <v>0.0003493252478899494</v>
       </c>
       <c r="C202">
-        <v>0.0002085080329292048</v>
+        <v>0.0002308780533692183</v>
       </c>
       <c r="D202">
-        <v>0.0003161005793023116</v>
+        <v>0.0003246136414724277</v>
       </c>
       <c r="E202">
-        <v>0.0002670129817836737</v>
+        <v>0.0002790690063136911</v>
       </c>
       <c r="F202">
-        <v>0.0002319708988894861</v>
+        <v>0.0002516796371194771</v>
       </c>
       <c r="G202">
-        <v>0.0002259365308074982</v>
+        <v>0.0002347039951606223</v>
       </c>
       <c r="H202">
-        <v>0.0003313403634759072</v>
-      </c>
-      <c r="I202">
-        <v>0.0002410782818992937</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9">
+        <v>0.0003616642291659022</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
       <c r="A203" s="1">
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0.0002205149130255619</v>
+        <v>0.0002372412626197383</v>
       </c>
       <c r="C203">
-        <v>0.0001803469832861886</v>
+        <v>0.0002051066288821295</v>
       </c>
       <c r="D203">
-        <v>0.0001692545401177978</v>
+        <v>0.0001857422546465286</v>
       </c>
       <c r="E203">
-        <v>0.0001785357328515873</v>
+        <v>0.0001903422301759968</v>
       </c>
       <c r="F203">
-        <v>0.0001240960909829459</v>
+        <v>0.0001312699450829539</v>
       </c>
       <c r="G203">
-        <v>0.0003130127910787734</v>
+        <v>0.0003310102133978217</v>
       </c>
       <c r="H203">
-        <v>0.0002270206360927119</v>
-      </c>
-      <c r="I203">
-        <v>0.0001660691339834782</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9">
+        <v>0.0002533066772310729</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
       <c r="A204" s="1">
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.0002176813644235592</v>
+        <v>0.0002500800284725043</v>
       </c>
       <c r="C204">
-        <v>0.0002237930213234252</v>
+        <v>0.0002628913926931221</v>
       </c>
       <c r="D204">
-        <v>0.0002140449338236807</v>
+        <v>0.0002343607990110494</v>
       </c>
       <c r="E204">
-        <v>0.0002016037793298166</v>
+        <v>0.000227740512768469</v>
       </c>
       <c r="F204">
-        <v>0.0008209621881325198</v>
+        <v>0.0008576552369966734</v>
       </c>
       <c r="G204">
-        <v>0.0004233427271581413</v>
+        <v>0.000476404405467487</v>
       </c>
       <c r="H204">
-        <v>0.0003008516913431889</v>
-      </c>
-      <c r="I204">
-        <v>0.0002675478984020812</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9">
+        <v>0.0003175495442625373</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
       <c r="A205" s="1">
         <v>203</v>
       </c>
       <c r="B205">
-        <v>0.0001227215114122193</v>
+        <v>0.000128253058314585</v>
       </c>
       <c r="C205">
-        <v>0.0001094490552812103</v>
+        <v>0.0001281062580333548</v>
       </c>
       <c r="D205">
-        <v>0.0001371172463947692</v>
+        <v>0.0001549467000562982</v>
       </c>
       <c r="E205">
-        <v>0.0001335240955557529</v>
+        <v>0.0001530572421306008</v>
       </c>
       <c r="F205">
-        <v>8.84995703595298E-05</v>
+        <v>0.0001007435179314714</v>
       </c>
       <c r="G205">
-        <v>0.0003245344177402143</v>
+        <v>0.0003323346336384875</v>
       </c>
       <c r="H205">
-        <v>0.0001637509906977589</v>
-      </c>
-      <c r="I205">
-        <v>0.0001326969884245466</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9">
+        <v>0.0001676735181324904</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
       <c r="A206" s="1">
         <v>204</v>
       </c>
       <c r="B206">
-        <v>0.0002908254899210756</v>
+        <v>0.0003289066608689874</v>
       </c>
       <c r="C206">
-        <v>0.0002622862465044017</v>
+        <v>0.0002979340299324542</v>
       </c>
       <c r="D206">
-        <v>0.0003646758472223019</v>
+        <v>0.0004012962404324746</v>
       </c>
       <c r="E206">
-        <v>0.000472308038063307</v>
+        <v>0.000508735425542448</v>
       </c>
       <c r="F206">
-        <v>0.0003279475411140042</v>
+        <v>0.0003483104730895257</v>
       </c>
       <c r="G206">
-        <v>0.0004297376015657352</v>
+        <v>0.0004544042474313217</v>
       </c>
       <c r="H206">
-        <v>0.0003160174408912393</v>
-      </c>
-      <c r="I206">
-        <v>0.000276783339424038</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9">
+        <v>0.0003514264976557827</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
       <c r="A207" s="1">
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.0001171428754659339</v>
+        <v>0.0001360459120773978</v>
       </c>
       <c r="C207">
-        <v>0.0001219848199823466</v>
+        <v>0.0001260698991274303</v>
       </c>
       <c r="D207">
-        <v>0.0001300633169461622</v>
+        <v>0.000155352796194145</v>
       </c>
       <c r="E207">
-        <v>0.000103234616261547</v>
+        <v>0.0001206921994331746</v>
       </c>
       <c r="F207">
-        <v>0.0001666987858733631</v>
+        <v>0.0001897957192375713</v>
       </c>
       <c r="G207">
-        <v>0.0001362523966453279</v>
+        <v>0.0001352417293796031</v>
       </c>
       <c r="H207">
-        <v>0.0002901891846652198</v>
-      </c>
-      <c r="I207">
-        <v>0.0001286460850971725</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9">
+        <v>0.0002896368027686558</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
       <c r="A208" s="1">
         <v>206</v>
       </c>
       <c r="B208">
-        <v>0.0004770913750135411</v>
+        <v>0.0005534024958585987</v>
       </c>
       <c r="C208">
-        <v>0.000603530296334543</v>
+        <v>0.0007216147369800966</v>
       </c>
       <c r="D208">
-        <v>0.0009509987124028359</v>
+        <v>0.000967190087287955</v>
       </c>
       <c r="E208">
-        <v>0.001123685256786322</v>
+        <v>0.001096168102408492</v>
       </c>
       <c r="F208">
-        <v>0.001623773580447213</v>
+        <v>0.001650288390838261</v>
       </c>
       <c r="G208">
-        <v>0.001435665633513901</v>
+        <v>0.001680276574761232</v>
       </c>
       <c r="H208">
-        <v>0.0005857473837222254</v>
-      </c>
-      <c r="I208">
-        <v>0.0008157737821005241</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9">
+        <v>0.0006949550759623061</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
       <c r="A209" s="1">
         <v>207</v>
       </c>
       <c r="B209">
-        <v>0.0004503691566451459</v>
+        <v>0.0005261495030962389</v>
       </c>
       <c r="C209">
-        <v>0.0002522479486537228</v>
+        <v>0.0002452267141275216</v>
       </c>
       <c r="D209">
-        <v>0.0002792907393008627</v>
+        <v>0.0002682103873352639</v>
       </c>
       <c r="E209">
-        <v>0.0003237610950764452</v>
+        <v>0.0003063948159545024</v>
       </c>
       <c r="F209">
-        <v>0.0003434405581483602</v>
+        <v>0.0003390089275226992</v>
       </c>
       <c r="G209">
-        <v>0.0002139201790003785</v>
+        <v>0.0002437923019990859</v>
       </c>
       <c r="H209">
-        <v>0.0002805135432875695</v>
-      </c>
-      <c r="I209">
-        <v>0.0003093082228997452</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9">
+        <v>0.0003281531671710856</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
       <c r="A210" s="1">
         <v>208</v>
       </c>
       <c r="B210">
-        <v>0.0001687056551409154</v>
+        <v>0.0001788297609710463</v>
       </c>
       <c r="C210">
-        <v>0.0001715516153932774</v>
+        <v>0.0001626206703475269</v>
       </c>
       <c r="D210">
-        <v>0.0001536380272189751</v>
+        <v>0.0001538033791854365</v>
       </c>
       <c r="E210">
-        <v>0.0001967256396865752</v>
+        <v>0.0002289783943224323</v>
       </c>
       <c r="F210">
-        <v>0.0001183249086178475</v>
+        <v>0.000114720977387867</v>
       </c>
       <c r="G210">
-        <v>0.0005672756505747435</v>
+        <v>0.0005670483898156654</v>
       </c>
       <c r="H210">
-        <v>0.0002038981885265566</v>
-      </c>
-      <c r="I210">
-        <v>0.0002809562733105473</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9">
+        <v>0.0001925557642817851</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
       <c r="A211" s="1">
         <v>209</v>
       </c>
       <c r="B211">
-        <v>0.0001075472990729878</v>
+        <v>0.0001118084317170208</v>
       </c>
       <c r="C211">
-        <v>0.0001064579335495791</v>
+        <v>8.820481085737846E-05</v>
       </c>
       <c r="D211">
-        <v>8.156094697337522E-05</v>
+        <v>7.081694574637135E-05</v>
       </c>
       <c r="E211">
-        <v>8.357868055866324E-05</v>
+        <v>8.327742963083107E-05</v>
       </c>
       <c r="F211">
-        <v>9.131584421207845E-05</v>
+        <v>0.0001072298405295653</v>
       </c>
       <c r="G211">
-        <v>0.0001492533527543047</v>
+        <v>0.0001335886505115459</v>
       </c>
       <c r="H211">
-        <v>9.709819792453158E-05</v>
-      </c>
-      <c r="I211">
-        <v>0.0001658701826309541</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9">
+        <v>8.29827714794779E-05</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
       <c r="A212" s="1">
         <v>210</v>
       </c>
       <c r="B212">
-        <v>0.0006285081506898829</v>
+        <v>0.0007516549974976928</v>
       </c>
       <c r="C212">
-        <v>0.0005300866872065829</v>
+        <v>0.0006503237393099144</v>
       </c>
       <c r="D212">
-        <v>0.0007418618782040286</v>
+        <v>0.0007876643497487269</v>
       </c>
       <c r="E212">
-        <v>0.0008064316062446509</v>
+        <v>0.0008594824120695044</v>
       </c>
       <c r="F212">
-        <v>0.00187049482887994</v>
+        <v>0.001966692967650813</v>
       </c>
       <c r="G212">
-        <v>0.0005735050354984924</v>
+        <v>0.0006741548498625662</v>
       </c>
       <c r="H212">
-        <v>0.0004975829652668805</v>
-      </c>
-      <c r="I212">
-        <v>0.0005739925941907968</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9">
+        <v>0.0005539180627141658</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
       <c r="A213" s="1">
         <v>211</v>
       </c>
       <c r="B213">
-        <v>0.0006242643167427006</v>
+        <v>0.0006684164470613579</v>
       </c>
       <c r="C213">
-        <v>0.000476089372270524</v>
+        <v>0.0005690047253742419</v>
       </c>
       <c r="D213">
-        <v>0.0005634119862531336</v>
+        <v>0.0006344261968747773</v>
       </c>
       <c r="E213">
-        <v>0.0006371413852959075</v>
+        <v>0.000689303791211184</v>
       </c>
       <c r="F213">
-        <v>0.0007452641899215184</v>
+        <v>0.0007935209945868279</v>
       </c>
       <c r="G213">
-        <v>0.0005318839371173026</v>
+        <v>0.0005852003739711467</v>
       </c>
       <c r="H213">
-        <v>0.0006136838801169606</v>
-      </c>
-      <c r="I213">
-        <v>0.0004581597260791018</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9">
+        <v>0.0006541102896557055</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
       <c r="A214" s="1">
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.0003732685134961297</v>
+        <v>0.0004018441106219332</v>
       </c>
       <c r="C214">
-        <v>0.0004341112399257207</v>
+        <v>0.0005110555762149484</v>
       </c>
       <c r="D214">
-        <v>0.0005028743869259026</v>
+        <v>0.0005698512580232924</v>
       </c>
       <c r="E214">
-        <v>0.000572090228093558</v>
+        <v>0.0006333799932430777</v>
       </c>
       <c r="F214">
-        <v>0.001386228767536404</v>
+        <v>0.001479988011829756</v>
       </c>
       <c r="G214">
-        <v>0.0006610301207123845</v>
+        <v>0.0007584351120732689</v>
       </c>
       <c r="H214">
-        <v>0.0003699734126279655</v>
-      </c>
-      <c r="I214">
-        <v>0.0003906124425806681</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9">
+        <v>0.0004552309734442499</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8">
       <c r="A215" s="1">
         <v>213</v>
       </c>
       <c r="B215">
-        <v>0.0006872045079312486</v>
+        <v>0.0008398133431274169</v>
       </c>
       <c r="C215">
-        <v>0.0008349595607851304</v>
+        <v>0.0009728607821324456</v>
       </c>
       <c r="D215">
-        <v>0.001122403553310242</v>
+        <v>0.00127137597317076</v>
       </c>
       <c r="E215">
-        <v>0.001108517620561273</v>
+        <v>0.001269890303141247</v>
       </c>
       <c r="F215">
-        <v>0.003084942918405116</v>
+        <v>0.00331721158635854</v>
       </c>
       <c r="G215">
-        <v>0.001243024718849385</v>
+        <v>0.001388095936648728</v>
       </c>
       <c r="H215">
-        <v>0.0008014906959845897</v>
-      </c>
-      <c r="I215">
-        <v>0.0007692797039770284</v>
+        <v>0.0009237148487435731</v>
       </c>
     </row>
   </sheetData>
